--- a/data-request/dreq_default.xlsx
+++ b/data-request/dreq_default.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="398">
   <si>
     <t>frequency</t>
   </si>
@@ -888,9 +888,6 @@
     <t>hus70</t>
   </si>
   <si>
-    <t>hus750</t>
-  </si>
-  <si>
     <t>li</t>
   </si>
   <si>
@@ -954,9 +951,6 @@
     <t>ta70</t>
   </si>
   <si>
-    <t>ta750</t>
-  </si>
-  <si>
     <t>ua10</t>
   </si>
   <si>
@@ -987,9 +981,6 @@
     <t>ua70</t>
   </si>
   <si>
-    <t>ua750</t>
-  </si>
-  <si>
     <t>va10</t>
   </si>
   <si>
@@ -1011,9 +1002,6 @@
     <t>va70</t>
   </si>
   <si>
-    <t>va750</t>
-  </si>
-  <si>
     <t>wa10</t>
   </si>
   <si>
@@ -1035,9 +1023,6 @@
     <t>wa70</t>
   </si>
   <si>
-    <t>wa750</t>
-  </si>
-  <si>
     <t>wsgsmax</t>
   </si>
   <si>
@@ -1063,9 +1048,6 @@
   </si>
   <si>
     <t>zg70</t>
-  </si>
-  <si>
-    <t>zg750</t>
   </si>
   <si>
     <t>cell_area</t>
@@ -5669,7 +5651,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F136"/>
+  <dimension ref="A1:F124"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5703,16 +5685,16 @@
         <v>273</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="F2" t="s">
         <v>73</v>
@@ -5723,13 +5705,13 @@
         <v>274</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>64</v>
@@ -5755,13 +5737,13 @@
         <v>275</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>66</v>
@@ -5787,13 +5769,13 @@
         <v>276</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>64</v>
@@ -5819,13 +5801,13 @@
         <v>277</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>66</v>
@@ -5851,10 +5833,10 @@
         <v>278</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>55</v>
@@ -5871,10 +5853,10 @@
         <v>279</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>55</v>
@@ -5891,10 +5873,10 @@
         <v>280</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>55</v>
@@ -5911,10 +5893,10 @@
         <v>281</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>58</v>
@@ -5931,10 +5913,10 @@
         <v>282</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>56</v>
@@ -6175,19 +6157,19 @@
         <v>290</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>26</v>
+        <v>350</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>217</v>
+        <v>374</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F30" t="s">
-        <v>271</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -6207,19 +6189,19 @@
         <v>291</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F32" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -6228,10 +6210,10 @@
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F33" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -6239,28 +6221,36 @@
         <v>292</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>62</v>
+        <v>264</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>66</v>
+        <v>395</v>
       </c>
       <c r="F34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+      <c r="A35" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="E35" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F35" t="s">
         <v>75</v>
@@ -6268,53 +6258,53 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>264</v>
+        <v>60</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>401</v>
+        <v>63</v>
       </c>
       <c r="F36" t="s">
-        <v>73</v>
+        <v>272</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>63</v>
       </c>
       <c r="F37" t="s">
-        <v>75</v>
+        <v>272</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>60</v>
@@ -6328,33 +6318,33 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F39" t="s">
-        <v>272</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>60</v>
@@ -6368,33 +6358,33 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F41" t="s">
-        <v>73</v>
+        <v>272</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>60</v>
@@ -6408,59 +6398,59 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F43" t="s">
-        <v>272</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>63</v>
+        <v>396</v>
       </c>
       <c r="F44" t="s">
-        <v>272</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>65</v>
+        <v>397</v>
       </c>
       <c r="F45" t="s">
         <v>73</v>
@@ -6468,42 +6458,34 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>367</v>
+        <v>35</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>392</v>
+        <v>244</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>402</v>
+        <v>64</v>
       </c>
       <c r="F46" t="s">
-        <v>73</v>
+        <v>271</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
       <c r="E47" s="1" t="s">
-        <v>403</v>
+        <v>63</v>
       </c>
       <c r="F47" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -6703,13 +6685,13 @@
         <v>311</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>64</v>
@@ -6735,13 +6717,13 @@
         <v>312</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>64</v>
@@ -6834,7 +6816,7 @@
         <v>36</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>250</v>
+        <v>388</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>61</v>
@@ -6843,7 +6825,7 @@
         <v>64</v>
       </c>
       <c r="F68" t="s">
-        <v>271</v>
+        <v>71</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -6866,7 +6848,7 @@
         <v>36</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>250</v>
+        <v>389</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>61</v>
@@ -6875,7 +6857,7 @@
         <v>64</v>
       </c>
       <c r="F70" t="s">
-        <v>271</v>
+        <v>71</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -6898,7 +6880,7 @@
         <v>36</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>394</v>
+        <v>250</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>61</v>
@@ -6907,7 +6889,7 @@
         <v>64</v>
       </c>
       <c r="F72" t="s">
-        <v>71</v>
+        <v>271</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -6930,7 +6912,7 @@
         <v>36</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>61</v>
@@ -6994,7 +6976,7 @@
         <v>36</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>395</v>
+        <v>250</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>61</v>
@@ -7003,7 +6985,7 @@
         <v>64</v>
       </c>
       <c r="F78" t="s">
-        <v>71</v>
+        <v>271</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -7023,10 +7005,10 @@
         <v>321</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>61</v>
@@ -7055,10 +7037,10 @@
         <v>322</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>61</v>
@@ -7087,10 +7069,10 @@
         <v>323</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>61</v>
@@ -7247,10 +7229,10 @@
         <v>328</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>37</v>
+        <v>210</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>61</v>
@@ -7279,10 +7261,10 @@
         <v>329</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>37</v>
+        <v>210</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>61</v>
@@ -7311,10 +7293,10 @@
         <v>330</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>37</v>
+        <v>210</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>61</v>
@@ -7343,10 +7325,10 @@
         <v>331</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>37</v>
+        <v>210</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>61</v>
@@ -7471,19 +7453,19 @@
         <v>335</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>210</v>
+        <v>362</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>261</v>
+        <v>390</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>61</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F108" t="s">
-        <v>271</v>
+        <v>74</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -7492,10 +7474,10 @@
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F109" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -7503,174 +7485,174 @@
         <v>336</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>210</v>
+        <v>363</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>261</v>
+        <v>391</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F110" t="s">
-        <v>271</v>
+        <v>72</v>
       </c>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="1"/>
-      <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
+      <c r="A111" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E111" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F111" t="s">
-        <v>72</v>
+        <v>271</v>
       </c>
     </row>
     <row r="112" spans="1:6">
-      <c r="A112" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
       <c r="E112" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F112" t="s">
-        <v>271</v>
+        <v>72</v>
       </c>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" s="1"/>
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
+      <c r="A113" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E113" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F113" t="s">
-        <v>72</v>
+        <v>271</v>
       </c>
     </row>
     <row r="114" spans="1:6">
-      <c r="A114" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="A114" s="1"/>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
       <c r="E114" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F114" t="s">
-        <v>271</v>
+        <v>72</v>
       </c>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="1"/>
-      <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
+      <c r="A115" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E115" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F115" t="s">
-        <v>72</v>
+        <v>271</v>
       </c>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
       <c r="E116" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F116" t="s">
-        <v>271</v>
+        <v>72</v>
       </c>
     </row>
     <row r="117" spans="1:6">
-      <c r="A117" s="1"/>
-      <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
+      <c r="A117" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E117" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F117" t="s">
-        <v>72</v>
+        <v>271</v>
       </c>
     </row>
     <row r="118" spans="1:6">
-      <c r="A118" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="A118" s="1"/>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
       <c r="E118" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F118" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="119" spans="1:6">
-      <c r="A119" s="1"/>
-      <c r="B119" s="1"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
+      <c r="A119" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E119" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F119" t="s">
-        <v>75</v>
+        <v>271</v>
       </c>
     </row>
     <row r="120" spans="1:6">
-      <c r="A120" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="A120" s="1"/>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
       <c r="E120" s="1" t="s">
         <v>63</v>
       </c>
@@ -7742,200 +7724,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
-      <c r="A125" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F125" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126" s="1"/>
-      <c r="B126" s="1"/>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
-      <c r="E126" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F126" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F127" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128" s="1"/>
-      <c r="B128" s="1"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
-      <c r="E128" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F128" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F129" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130" s="1"/>
-      <c r="B130" s="1"/>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
-      <c r="E130" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F130" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F131" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="A132" s="1"/>
-      <c r="B132" s="1"/>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
-      <c r="E132" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F132" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
-      <c r="A133" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F133" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134" s="1"/>
-      <c r="B134" s="1"/>
-      <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
-      <c r="E134" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F134" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F135" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136" s="1"/>
-      <c r="B136" s="1"/>
-      <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
-      <c r="E136" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F136" t="s">
-        <v>72</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="232">
+  <mergeCells count="208">
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
@@ -7949,7 +7739,7 @@
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A46:A47"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="A50:A51"/>
     <mergeCell ref="A52:A53"/>
@@ -7981,19 +7771,13 @@
     <mergeCell ref="A104:A105"/>
     <mergeCell ref="A106:A107"/>
     <mergeCell ref="A108:A109"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="A119:A120"/>
     <mergeCell ref="A121:A122"/>
     <mergeCell ref="A123:A124"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="A129:A130"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="A135:A136"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B7:B8"/>
@@ -8007,7 +7791,7 @@
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B46:B47"/>
     <mergeCell ref="B48:B49"/>
     <mergeCell ref="B50:B51"/>
     <mergeCell ref="B52:B53"/>
@@ -8039,19 +7823,13 @@
     <mergeCell ref="B104:B105"/>
     <mergeCell ref="B106:B107"/>
     <mergeCell ref="B108:B109"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="B119:B120"/>
     <mergeCell ref="B121:B122"/>
     <mergeCell ref="B123:B124"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="B129:B130"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="B135:B136"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="C7:C8"/>
@@ -8065,7 +7843,7 @@
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="C30:C31"/>
     <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C46:C47"/>
     <mergeCell ref="C48:C49"/>
     <mergeCell ref="C50:C51"/>
     <mergeCell ref="C52:C53"/>
@@ -8097,19 +7875,13 @@
     <mergeCell ref="C104:C105"/>
     <mergeCell ref="C106:C107"/>
     <mergeCell ref="C108:C109"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="C116:C117"/>
-    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="C119:C120"/>
     <mergeCell ref="C121:C122"/>
     <mergeCell ref="C123:C124"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="C129:C130"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="C135:C136"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="D7:D8"/>
@@ -8123,7 +7895,7 @@
     <mergeCell ref="D28:D29"/>
     <mergeCell ref="D30:D31"/>
     <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D46:D47"/>
     <mergeCell ref="D48:D49"/>
     <mergeCell ref="D50:D51"/>
     <mergeCell ref="D52:D53"/>
@@ -8155,19 +7927,13 @@
     <mergeCell ref="D104:D105"/>
     <mergeCell ref="D106:D107"/>
     <mergeCell ref="D108:D109"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="D114:D115"/>
-    <mergeCell ref="D116:D117"/>
-    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="D115:D116"/>
+    <mergeCell ref="D117:D118"/>
+    <mergeCell ref="D119:D120"/>
     <mergeCell ref="D121:D122"/>
     <mergeCell ref="D123:D124"/>
-    <mergeCell ref="D125:D126"/>
-    <mergeCell ref="D127:D128"/>
-    <mergeCell ref="D129:D130"/>
-    <mergeCell ref="D131:D132"/>
-    <mergeCell ref="D133:D134"/>
-    <mergeCell ref="D135:D136"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data-request/dreq_default.xlsx
+++ b/data-request/dreq_default.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="399">
   <si>
     <t>frequency</t>
   </si>
@@ -795,7 +795,7 @@
     <t>Northward Wind at 250m</t>
   </si>
   <si>
-    <t>Northward Wind at 350m</t>
+    <t>Northward Wind at 300m</t>
   </si>
   <si>
     <t>Northward Wind at 50m</t>
@@ -1186,6 +1186,9 @@
   </si>
   <si>
     <t>Eastward Wind at 250m</t>
+  </si>
+  <si>
+    <t>Eastward Wind at 300m</t>
   </si>
   <si>
     <t>Daily Maximum Near-Surface Wind Speed of Gust</t>
@@ -5691,10 +5694,10 @@
         <v>364</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F2" t="s">
         <v>73</v>
@@ -5711,7 +5714,7 @@
         <v>365</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>64</v>
@@ -5743,7 +5746,7 @@
         <v>366</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>66</v>
@@ -5775,7 +5778,7 @@
         <v>367</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>64</v>
@@ -5807,7 +5810,7 @@
         <v>368</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>66</v>
@@ -6230,7 +6233,7 @@
         <v>264</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F34" t="s">
         <v>73</v>
@@ -6430,7 +6433,7 @@
         <v>55</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F44" t="s">
         <v>73</v>
@@ -6450,7 +6453,7 @@
         <v>55</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F45" t="s">
         <v>73</v>
@@ -6912,7 +6915,7 @@
         <v>36</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>61</v>
@@ -7456,7 +7459,7 @@
         <v>362</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>61</v>
@@ -7488,7 +7491,7 @@
         <v>363</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>58</v>

--- a/data-request/dreq_default.xlsx
+++ b/data-request/dreq_default.xlsx
@@ -2862,7 +2862,7 @@
         <v>268</v>
       </c>
       <c r="F45" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" spans="1:6">

--- a/data-request/dreq_default.xlsx
+++ b/data-request/dreq_default.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="495">
   <si>
     <t>frequency</t>
   </si>
@@ -669,12 +669,39 @@
     <t>Surface Upward Sensible Heat Flux</t>
   </si>
   <si>
-    <t>Specific Humidity</t>
+    <t>Specific Humidity at 1000 hPa at 1000 hPa</t>
+  </si>
+  <si>
+    <t>Specific Humidity at 200 hPa at 200 hPa</t>
+  </si>
+  <si>
+    <t>Specific Humidity at 250 hPa at 250 hPa</t>
+  </si>
+  <si>
+    <t>Specific Humidity at 300 hPa at 300 hPa</t>
+  </si>
+  <si>
+    <t>Specific Humidity at 400 hPa at 400 hPa</t>
+  </si>
+  <si>
+    <t>Specific Humidity at 500 hPa at 500 hPa</t>
   </si>
   <si>
     <t>Specific Humidity at 50m</t>
   </si>
   <si>
+    <t>Specific Humidity at 600 hPa at 600 hPa</t>
+  </si>
+  <si>
+    <t>Specific Humidity at 700 hPa at 700 hPa</t>
+  </si>
+  <si>
+    <t>Specific Humidity at 850 hPa at 850 hPa</t>
+  </si>
+  <si>
+    <t>Specific Humidity at 925 hPa at 925 hPa</t>
+  </si>
+  <si>
     <t>Soil Frozen Water Content</t>
   </si>
   <si>
@@ -750,12 +777,39 @@
     <t>Daily Duration of Sunshine</t>
   </si>
   <si>
-    <t>Air Temperature</t>
+    <t>Air Temperature at 1000 hPa at 1000 hPa</t>
+  </si>
+  <si>
+    <t>Air Temperature at 200 hPa at 200 hPa</t>
+  </si>
+  <si>
+    <t>Air Temperature at 250 hPa at 250 hPa</t>
+  </si>
+  <si>
+    <t>Air Temperature at 300 hPa at 300 hPa</t>
+  </si>
+  <si>
+    <t>Air Temperature at 400 hPa at 400 hPa</t>
+  </si>
+  <si>
+    <t>Air Temperature at 500 hPa at 500 hPa</t>
   </si>
   <si>
     <t>Air Temperature at 50m</t>
   </si>
   <si>
+    <t>Air Temperature at 600 hPa at 600 hPa</t>
+  </si>
+  <si>
+    <t>Air Temperature at 700 hPa at 700 hPa</t>
+  </si>
+  <si>
+    <t>Air Temperature at 850 hPa at 850 hPa</t>
+  </si>
+  <si>
+    <t>Air Temperature at 925 hPa at 925 hPa</t>
+  </si>
+  <si>
     <t>Surface Downward Eastward Wind Stress</t>
   </si>
   <si>
@@ -768,7 +822,7 @@
     <t>Temperature of Soil</t>
   </si>
   <si>
-    <t>Eastward Wind</t>
+    <t>Eastward Wind at 1000 hPa at 1000 hPa</t>
   </si>
   <si>
     <t>Eastward Wind at 100m</t>
@@ -777,10 +831,37 @@
     <t>Eastward Wind at 150m</t>
   </si>
   <si>
+    <t>Eastward Wind at 200 hPa at 200 hPa</t>
+  </si>
+  <si>
+    <t>Eastward Wind at 250 hPa at 250 hPa</t>
+  </si>
+  <si>
+    <t>Eastward Wind at 300 hPa at 300 hPa</t>
+  </si>
+  <si>
+    <t>Eastward Wind at 400 hPa at 400 hPa</t>
+  </si>
+  <si>
+    <t>Eastward Wind at 500 hPa at 500 hPa</t>
+  </si>
+  <si>
     <t>Eastward Wind at 50m</t>
   </si>
   <si>
-    <t>Northward Wind</t>
+    <t>Eastward Wind at 600 hPa at 600 hPa</t>
+  </si>
+  <si>
+    <t>Eastward Wind at 700 hPa at 700 hPa</t>
+  </si>
+  <si>
+    <t>Eastward Wind at 850 hPa at 850 hPa</t>
+  </si>
+  <si>
+    <t>Eastward Wind at 925 hPa at 925 hPa</t>
+  </si>
+  <si>
+    <t>Northward Wind at 1000 hPa at 1000 hPa</t>
   </si>
   <si>
     <t>Northward Wind at 100m</t>
@@ -789,22 +870,103 @@
     <t>Northward Wind at 150m</t>
   </si>
   <si>
+    <t>Northward Wind at 200 hPa at 200 hPa</t>
+  </si>
+  <si>
     <t>Northward Wind at 200m</t>
   </si>
   <si>
+    <t>Northward Wind at 250 hPa at 250 hPa</t>
+  </si>
+  <si>
     <t>Northward Wind at 250m</t>
   </si>
   <si>
+    <t>Northward Wind at 300 hPa at 300 hPa</t>
+  </si>
+  <si>
     <t>Northward Wind at 300m</t>
   </si>
   <si>
+    <t>Northward Wind at 400 hPa at 400 hPa</t>
+  </si>
+  <si>
+    <t>Northward Wind at 500 hPa at 500 hPa</t>
+  </si>
+  <si>
     <t>Northward Wind at 50m</t>
   </si>
   <si>
-    <t>Upward Air Velocity</t>
-  </si>
-  <si>
-    <t>Geopotential Height</t>
+    <t>Northward Wind at 600 hPa at 600 hPa</t>
+  </si>
+  <si>
+    <t>Northward Wind at 700 hPa at 700 hPa</t>
+  </si>
+  <si>
+    <t>Northward Wind at 850 hPa at 850 hPa</t>
+  </si>
+  <si>
+    <t>Northward Wind at 925 hPa at 925 hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 1000 hPa at 1000 hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 200 hPa at 200 hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 250 hPa at 250 hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 300 hPa at 300 hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 400 hPa at 400 hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 500 hPa at 500 hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 600 hPa at 600 hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 700 hPa at 700 hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 850 hPa at 850 hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 925 hPa at 925 hPa</t>
+  </si>
+  <si>
+    <t>Geopotential Height at 1000 hPa at 1000 hPa</t>
+  </si>
+  <si>
+    <t>Geopotential Height at 200 hPa at 200 hPa</t>
+  </si>
+  <si>
+    <t>Geopotential Height at 250 hPa at 250 hPa</t>
+  </si>
+  <si>
+    <t>Geopotential Height at 300 hPa at 300 hPa</t>
+  </si>
+  <si>
+    <t>Geopotential Height at 400 hPa at 400 hPa</t>
+  </si>
+  <si>
+    <t>Geopotential Height at 500 hPa at 500 hPa</t>
+  </si>
+  <si>
+    <t>Geopotential Height at 600 hPa at 600 hPa</t>
+  </si>
+  <si>
+    <t>Geopotential Height at 700 hPa at 700 hPa</t>
+  </si>
+  <si>
+    <t>Geopotential Height at 850 hPa at 850 hPa</t>
+  </si>
+  <si>
+    <t>Geopotential Height at 925 hPa at 925 hPa</t>
   </si>
   <si>
     <t>Height of Boundary Layer</t>
@@ -1140,6 +1302,27 @@
     <t>Potential Evapotranspiration</t>
   </si>
   <si>
+    <t>Specific Humidity at 10 hPa at 10 hPa</t>
+  </si>
+  <si>
+    <t>Specific Humidity at 100 hPa at 100 hPa</t>
+  </si>
+  <si>
+    <t>Specific Humidity at 150 hPa at 150 hPa</t>
+  </si>
+  <si>
+    <t>Specific Humidity at 20 hPa at 20 hPa</t>
+  </si>
+  <si>
+    <t>Specific Humidity at 30 hPa at 30 hPa</t>
+  </si>
+  <si>
+    <t>Specific Humidity at 50 hPa at 50 hPa</t>
+  </si>
+  <si>
+    <t>Specific Humidity at 70 hPa at 70 hPa</t>
+  </si>
+  <si>
     <t>Lifted Index</t>
   </si>
   <si>
@@ -1182,19 +1365,124 @@
     <t>Percentage of the Grid Cell Occupied by Urban Area</t>
   </si>
   <si>
+    <t>Air Temperature at 10 hPa at 10 hPa</t>
+  </si>
+  <si>
+    <t>Air Temperature at 100 hPa at 100 hPa</t>
+  </si>
+  <si>
+    <t>Air Temperature at 150 hPa at 150 hPa</t>
+  </si>
+  <si>
+    <t>Air Temperature at 20 hPa at 20 hPa</t>
+  </si>
+  <si>
+    <t>Air Temperature at 30 hPa at 30 hPa</t>
+  </si>
+  <si>
+    <t>Air Temperature at 50 hPa at 50 hPa</t>
+  </si>
+  <si>
+    <t>Air Temperature at 70 hPa at 70 hPa</t>
+  </si>
+  <si>
+    <t>Eastward Wind at 10 hPa at 10 hPa</t>
+  </si>
+  <si>
+    <t>Eastward Wind at 100 hPa at 100 hPa</t>
+  </si>
+  <si>
+    <t>Eastward Wind at 150 hPa at 150 hPa</t>
+  </si>
+  <si>
+    <t>Eastward Wind at 20 hPa at 20 hPa</t>
+  </si>
+  <si>
     <t>Eastward Wind at 200m</t>
   </si>
   <si>
     <t>Eastward Wind at 250m</t>
   </si>
   <si>
+    <t>Eastward Wind at 30 hPa at 30 hPa</t>
+  </si>
+  <si>
     <t>Eastward Wind at 300m</t>
   </si>
   <si>
+    <t>Eastward Wind at 50 hPa at 50 hPa</t>
+  </si>
+  <si>
+    <t>Eastward Wind at 70 hPa at 70 hPa</t>
+  </si>
+  <si>
+    <t>Northward Wind at 10 hPa at 10 hPa</t>
+  </si>
+  <si>
+    <t>Northward Wind at 100 hPa at 100 hPa</t>
+  </si>
+  <si>
+    <t>Northward Wind at 150 hPa at 150 hPa</t>
+  </si>
+  <si>
+    <t>Northward Wind at 20 hPa at 20 hPa</t>
+  </si>
+  <si>
+    <t>Northward Wind at 30 hPa at 30 hPa</t>
+  </si>
+  <si>
+    <t>Northward Wind at 50 hPa at 50 hPa</t>
+  </si>
+  <si>
+    <t>Northward Wind at 70 hPa at 70 hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 10 hPa at 10 hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 100 hPa at 100 hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 150 hPa at 150 hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 20 hPa at 20 hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 30 hPa at 30 hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 50 hPa at 50 hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 70 hPa at 70 hPa</t>
+  </si>
+  <si>
     <t>Daily Maximum Near-Surface Wind Speed of Gust</t>
   </si>
   <si>
     <t>Surface Roughness Length</t>
+  </si>
+  <si>
+    <t>Geopotential Height at 10 hPa at 10 hPa</t>
+  </si>
+  <si>
+    <t>Geopotential Height at 100 hPa at 100 hPa</t>
+  </si>
+  <si>
+    <t>Geopotential Height at 150 hPa at 150 hPa</t>
+  </si>
+  <si>
+    <t>Geopotential Height at 20 hPa at 20 hPa</t>
+  </si>
+  <si>
+    <t>Geopotential Height at 30 hPa at 30 hPa</t>
+  </si>
+  <si>
+    <t>Geopotential Height at 50 hPa at 50 hPa</t>
+  </si>
+  <si>
+    <t>Geopotential Height at 70 hPa at 70 hPa</t>
   </si>
   <si>
     <t>m2</t>
@@ -2148,7 +2436,7 @@
         <v>213</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>264</v>
+        <v>318</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>64</v>
@@ -2180,7 +2468,7 @@
         <v>214</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>264</v>
+        <v>318</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>64</v>
@@ -2258,7 +2546,7 @@
         <v>64</v>
       </c>
       <c r="F8" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2281,7 +2569,7 @@
         <v>26</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>57</v>
@@ -2290,7 +2578,7 @@
         <v>64</v>
       </c>
       <c r="F10" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2313,7 +2601,7 @@
         <v>26</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>57</v>
@@ -2322,7 +2610,7 @@
         <v>64</v>
       </c>
       <c r="F12" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2345,7 +2633,7 @@
         <v>26</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>57</v>
@@ -2354,7 +2642,7 @@
         <v>64</v>
       </c>
       <c r="F14" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2377,7 +2665,7 @@
         <v>26</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>57</v>
@@ -2386,7 +2674,7 @@
         <v>64</v>
       </c>
       <c r="F16" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2409,7 +2697,7 @@
         <v>26</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>57</v>
@@ -2418,7 +2706,7 @@
         <v>64</v>
       </c>
       <c r="F18" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2441,7 +2729,7 @@
         <v>26</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>57</v>
@@ -2473,7 +2761,7 @@
         <v>26</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>57</v>
@@ -2482,7 +2770,7 @@
         <v>64</v>
       </c>
       <c r="F22" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2505,7 +2793,7 @@
         <v>26</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>57</v>
@@ -2514,7 +2802,7 @@
         <v>64</v>
       </c>
       <c r="F24" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2537,7 +2825,7 @@
         <v>26</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>57</v>
@@ -2546,7 +2834,7 @@
         <v>64</v>
       </c>
       <c r="F26" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2569,7 +2857,7 @@
         <v>26</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>57</v>
@@ -2578,7 +2866,7 @@
         <v>64</v>
       </c>
       <c r="F28" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2601,13 +2889,13 @@
         <v>185</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>264</v>
+        <v>318</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>266</v>
+        <v>320</v>
       </c>
       <c r="F30" t="s">
         <v>72</v>
@@ -2619,10 +2907,10 @@
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
-        <v>267</v>
+        <v>321</v>
       </c>
       <c r="F31" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2633,10 +2921,10 @@
         <v>186</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>264</v>
+        <v>318</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>64</v>
@@ -2665,16 +2953,16 @@
         <v>187</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>266</v>
+        <v>320</v>
       </c>
       <c r="F34" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2685,16 +2973,16 @@
         <v>188</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>266</v>
+        <v>320</v>
       </c>
       <c r="F35" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2705,13 +2993,13 @@
         <v>186</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>264</v>
+        <v>318</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>266</v>
+        <v>320</v>
       </c>
       <c r="F36" t="s">
         <v>72</v>
@@ -2723,10 +3011,10 @@
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
-        <v>267</v>
+        <v>321</v>
       </c>
       <c r="F37" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2737,13 +3025,13 @@
         <v>189</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>264</v>
+        <v>318</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>266</v>
+        <v>320</v>
       </c>
       <c r="F38" t="s">
         <v>72</v>
@@ -2755,10 +3043,10 @@
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1" t="s">
-        <v>267</v>
+        <v>321</v>
       </c>
       <c r="F39" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2769,13 +3057,13 @@
         <v>190</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>264</v>
+        <v>318</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>266</v>
+        <v>320</v>
       </c>
       <c r="F40" t="s">
         <v>72</v>
@@ -2787,10 +3075,10 @@
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1" t="s">
-        <v>267</v>
+        <v>321</v>
       </c>
       <c r="F41" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2801,13 +3089,13 @@
         <v>190</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>264</v>
+        <v>318</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>266</v>
+        <v>320</v>
       </c>
       <c r="F42" t="s">
         <v>72</v>
@@ -2819,7 +3107,7 @@
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1" t="s">
-        <v>267</v>
+        <v>321</v>
       </c>
       <c r="F43" t="s">
         <v>71</v>
@@ -2833,7 +3121,7 @@
         <v>191</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>56</v>
@@ -2853,13 +3141,13 @@
         <v>28</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>268</v>
+        <v>322</v>
       </c>
       <c r="F45" t="s">
         <v>74</v>
@@ -2873,7 +3161,7 @@
         <v>192</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>56</v>
@@ -2893,10 +3181,10 @@
         <v>193</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>264</v>
+        <v>318</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>64</v>
@@ -2925,7 +3213,7 @@
         <v>194</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>60</v>
@@ -2945,7 +3233,7 @@
         <v>195</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>60</v>
@@ -2965,7 +3253,7 @@
         <v>196</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>60</v>
@@ -2985,7 +3273,7 @@
         <v>197</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>60</v>
@@ -3005,7 +3293,7 @@
         <v>198</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>60</v>
@@ -3025,7 +3313,7 @@
         <v>199</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>60</v>
@@ -3045,7 +3333,7 @@
         <v>33</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>61</v>
@@ -3077,7 +3365,7 @@
         <v>200</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>55</v>
@@ -3097,7 +3385,7 @@
         <v>201</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>55</v>
@@ -3106,7 +3394,7 @@
         <v>64</v>
       </c>
       <c r="F58" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -3129,13 +3417,13 @@
         <v>202</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>58</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>266</v>
+        <v>320</v>
       </c>
       <c r="F60" t="s">
         <v>72</v>
@@ -3147,10 +3435,10 @@
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1" t="s">
-        <v>267</v>
+        <v>321</v>
       </c>
       <c r="F61" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -3161,16 +3449,16 @@
         <v>203</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>266</v>
+        <v>320</v>
       </c>
       <c r="F62" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -3181,13 +3469,13 @@
         <v>204</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>264</v>
+        <v>318</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>266</v>
+        <v>320</v>
       </c>
       <c r="F63" t="s">
         <v>72</v>
@@ -3199,10 +3487,10 @@
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1" t="s">
-        <v>267</v>
+        <v>321</v>
       </c>
       <c r="F64" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -3213,13 +3501,13 @@
         <v>205</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>265</v>
+        <v>319</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>269</v>
+        <v>323</v>
       </c>
       <c r="F65" t="s">
         <v>74</v>
@@ -3231,7 +3519,7 @@
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1" t="s">
-        <v>270</v>
+        <v>324</v>
       </c>
       <c r="F66" t="s">
         <v>75</v>
@@ -3245,7 +3533,7 @@
         <v>35</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>62</v>
@@ -3254,7 +3542,7 @@
         <v>64</v>
       </c>
       <c r="F67" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -3277,7 +3565,7 @@
         <v>35</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>62</v>
@@ -3286,7 +3574,7 @@
         <v>64</v>
       </c>
       <c r="F69" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3309,7 +3597,7 @@
         <v>35</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>62</v>
@@ -3318,7 +3606,7 @@
         <v>64</v>
       </c>
       <c r="F71" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3341,7 +3629,7 @@
         <v>35</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>62</v>
@@ -3350,7 +3638,7 @@
         <v>64</v>
       </c>
       <c r="F73" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3373,7 +3661,7 @@
         <v>35</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>62</v>
@@ -3382,7 +3670,7 @@
         <v>64</v>
       </c>
       <c r="F75" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3405,7 +3693,7 @@
         <v>35</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>62</v>
@@ -3414,7 +3702,7 @@
         <v>64</v>
       </c>
       <c r="F77" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3437,7 +3725,7 @@
         <v>35</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>62</v>
@@ -3469,7 +3757,7 @@
         <v>35</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>62</v>
@@ -3478,7 +3766,7 @@
         <v>64</v>
       </c>
       <c r="F81" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3501,7 +3789,7 @@
         <v>35</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>62</v>
@@ -3510,7 +3798,7 @@
         <v>64</v>
       </c>
       <c r="F83" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3533,7 +3821,7 @@
         <v>35</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>62</v>
@@ -3542,7 +3830,7 @@
         <v>64</v>
       </c>
       <c r="F85" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3565,7 +3853,7 @@
         <v>35</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>62</v>
@@ -3574,7 +3862,7 @@
         <v>64</v>
       </c>
       <c r="F87" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3597,7 +3885,7 @@
         <v>206</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>59</v>
@@ -3617,7 +3905,7 @@
         <v>207</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>59</v>
@@ -3637,7 +3925,7 @@
         <v>208</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>62</v>
@@ -3669,13 +3957,13 @@
         <v>209</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>266</v>
+        <v>320</v>
       </c>
       <c r="F93" t="s">
         <v>72</v>
@@ -3687,10 +3975,10 @@
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1" t="s">
-        <v>267</v>
+        <v>321</v>
       </c>
       <c r="F94" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3701,7 +3989,7 @@
         <v>36</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>61</v>
@@ -3710,7 +3998,7 @@
         <v>64</v>
       </c>
       <c r="F95" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3733,7 +4021,7 @@
         <v>36</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>61</v>
@@ -3765,7 +4053,7 @@
         <v>36</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>61</v>
@@ -3797,7 +4085,7 @@
         <v>36</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>61</v>
@@ -3806,7 +4094,7 @@
         <v>64</v>
       </c>
       <c r="F101" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3829,7 +4117,7 @@
         <v>36</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>61</v>
@@ -3838,7 +4126,7 @@
         <v>64</v>
       </c>
       <c r="F103" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3861,7 +4149,7 @@
         <v>36</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>61</v>
@@ -3870,7 +4158,7 @@
         <v>64</v>
       </c>
       <c r="F105" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3893,7 +4181,7 @@
         <v>36</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>61</v>
@@ -3902,7 +4190,7 @@
         <v>64</v>
       </c>
       <c r="F107" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3925,7 +4213,7 @@
         <v>36</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>61</v>
@@ -3934,7 +4222,7 @@
         <v>64</v>
       </c>
       <c r="F109" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3957,7 +4245,7 @@
         <v>36</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>61</v>
@@ -3989,7 +4277,7 @@
         <v>36</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>61</v>
@@ -3998,7 +4286,7 @@
         <v>64</v>
       </c>
       <c r="F113" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -4021,7 +4309,7 @@
         <v>36</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>61</v>
@@ -4030,7 +4318,7 @@
         <v>64</v>
       </c>
       <c r="F115" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -4053,7 +4341,7 @@
         <v>36</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>61</v>
@@ -4062,7 +4350,7 @@
         <v>64</v>
       </c>
       <c r="F117" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -4085,7 +4373,7 @@
         <v>36</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>61</v>
@@ -4094,7 +4382,7 @@
         <v>64</v>
       </c>
       <c r="F119" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -4117,7 +4405,7 @@
         <v>37</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>61</v>
@@ -4126,7 +4414,7 @@
         <v>64</v>
       </c>
       <c r="F121" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -4149,7 +4437,7 @@
         <v>37</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>61</v>
@@ -4181,7 +4469,7 @@
         <v>37</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>61</v>
@@ -4213,7 +4501,7 @@
         <v>37</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>61</v>
@@ -4222,7 +4510,7 @@
         <v>64</v>
       </c>
       <c r="F127" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -4245,7 +4533,7 @@
         <v>37</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>61</v>
@@ -4277,7 +4565,7 @@
         <v>37</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>254</v>
+        <v>286</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>61</v>
@@ -4286,7 +4574,7 @@
         <v>64</v>
       </c>
       <c r="F131" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -4309,7 +4597,7 @@
         <v>37</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>258</v>
+        <v>287</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>61</v>
@@ -4341,7 +4629,7 @@
         <v>37</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>254</v>
+        <v>288</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>61</v>
@@ -4350,7 +4638,7 @@
         <v>64</v>
       </c>
       <c r="F135" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -4373,7 +4661,7 @@
         <v>37</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>61</v>
@@ -4405,7 +4693,7 @@
         <v>37</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>254</v>
+        <v>290</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>61</v>
@@ -4414,7 +4702,7 @@
         <v>64</v>
       </c>
       <c r="F139" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -4437,7 +4725,7 @@
         <v>37</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>254</v>
+        <v>291</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>61</v>
@@ -4446,7 +4734,7 @@
         <v>64</v>
       </c>
       <c r="F141" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4469,7 +4757,7 @@
         <v>37</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>260</v>
+        <v>292</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>61</v>
@@ -4501,7 +4789,7 @@
         <v>37</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>254</v>
+        <v>293</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>61</v>
@@ -4510,7 +4798,7 @@
         <v>64</v>
       </c>
       <c r="F145" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4533,7 +4821,7 @@
         <v>37</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>254</v>
+        <v>294</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>61</v>
@@ -4542,7 +4830,7 @@
         <v>64</v>
       </c>
       <c r="F147" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4565,7 +4853,7 @@
         <v>37</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>254</v>
+        <v>295</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>61</v>
@@ -4574,7 +4862,7 @@
         <v>64</v>
       </c>
       <c r="F149" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4597,7 +4885,7 @@
         <v>37</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>254</v>
+        <v>296</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>61</v>
@@ -4606,7 +4894,7 @@
         <v>64</v>
       </c>
       <c r="F151" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4629,7 +4917,7 @@
         <v>210</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>261</v>
+        <v>297</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>61</v>
@@ -4638,7 +4926,7 @@
         <v>64</v>
       </c>
       <c r="F153" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4661,7 +4949,7 @@
         <v>210</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>261</v>
+        <v>298</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>61</v>
@@ -4670,7 +4958,7 @@
         <v>64</v>
       </c>
       <c r="F155" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4693,7 +4981,7 @@
         <v>210</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>61</v>
@@ -4702,7 +4990,7 @@
         <v>64</v>
       </c>
       <c r="F157" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4725,7 +5013,7 @@
         <v>210</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>261</v>
+        <v>300</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>61</v>
@@ -4734,7 +5022,7 @@
         <v>64</v>
       </c>
       <c r="F159" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4757,7 +5045,7 @@
         <v>210</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>261</v>
+        <v>301</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>61</v>
@@ -4766,7 +5054,7 @@
         <v>64</v>
       </c>
       <c r="F161" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4789,7 +5077,7 @@
         <v>210</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>261</v>
+        <v>302</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>61</v>
@@ -4798,7 +5086,7 @@
         <v>64</v>
       </c>
       <c r="F163" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4821,7 +5109,7 @@
         <v>210</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>261</v>
+        <v>303</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>61</v>
@@ -4830,7 +5118,7 @@
         <v>64</v>
       </c>
       <c r="F165" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4853,7 +5141,7 @@
         <v>210</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>61</v>
@@ -4862,7 +5150,7 @@
         <v>64</v>
       </c>
       <c r="F167" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4885,7 +5173,7 @@
         <v>210</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>261</v>
+        <v>305</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>61</v>
@@ -4894,7 +5182,7 @@
         <v>64</v>
       </c>
       <c r="F169" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4917,7 +5205,7 @@
         <v>210</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>261</v>
+        <v>306</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>61</v>
@@ -4926,7 +5214,7 @@
         <v>64</v>
       </c>
       <c r="F171" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4949,7 +5237,7 @@
         <v>211</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>262</v>
+        <v>307</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>58</v>
@@ -4958,7 +5246,7 @@
         <v>64</v>
       </c>
       <c r="F173" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4981,7 +5269,7 @@
         <v>211</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>262</v>
+        <v>308</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>58</v>
@@ -4990,7 +5278,7 @@
         <v>64</v>
       </c>
       <c r="F175" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -5013,7 +5301,7 @@
         <v>211</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>262</v>
+        <v>309</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>58</v>
@@ -5022,7 +5310,7 @@
         <v>64</v>
       </c>
       <c r="F177" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -5045,7 +5333,7 @@
         <v>211</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>262</v>
+        <v>310</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>58</v>
@@ -5054,7 +5342,7 @@
         <v>64</v>
       </c>
       <c r="F179" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -5077,7 +5365,7 @@
         <v>211</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>262</v>
+        <v>311</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>58</v>
@@ -5086,7 +5374,7 @@
         <v>64</v>
       </c>
       <c r="F181" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -5109,7 +5397,7 @@
         <v>211</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>262</v>
+        <v>312</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>58</v>
@@ -5118,7 +5406,7 @@
         <v>64</v>
       </c>
       <c r="F183" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -5141,7 +5429,7 @@
         <v>211</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>262</v>
+        <v>313</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>58</v>
@@ -5150,7 +5438,7 @@
         <v>64</v>
       </c>
       <c r="F185" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -5173,7 +5461,7 @@
         <v>211</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>262</v>
+        <v>314</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>58</v>
@@ -5182,7 +5470,7 @@
         <v>64</v>
       </c>
       <c r="F187" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -5205,7 +5493,7 @@
         <v>211</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>262</v>
+        <v>315</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>58</v>
@@ -5214,7 +5502,7 @@
         <v>64</v>
       </c>
       <c r="F189" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -5237,7 +5525,7 @@
         <v>211</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>262</v>
+        <v>316</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>58</v>
@@ -5246,7 +5534,7 @@
         <v>64</v>
       </c>
       <c r="F191" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5269,7 +5557,7 @@
         <v>212</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>263</v>
+        <v>317</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>58</v>
@@ -5685,19 +5973,19 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>273</v>
+        <v>327</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>344</v>
+        <v>398</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>364</v>
+        <v>418</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>393</v>
+        <v>489</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>395</v>
+        <v>491</v>
       </c>
       <c r="F2" t="s">
         <v>73</v>
@@ -5705,16 +5993,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>345</v>
+        <v>399</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>365</v>
+        <v>419</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>394</v>
+        <v>490</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>64</v>
@@ -5737,16 +6025,16 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>275</v>
+        <v>329</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>345</v>
+        <v>399</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>366</v>
+        <v>420</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>394</v>
+        <v>490</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>66</v>
@@ -5769,16 +6057,16 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>346</v>
+        <v>400</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>367</v>
+        <v>421</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>394</v>
+        <v>490</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>64</v>
@@ -5801,16 +6089,16 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>277</v>
+        <v>331</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>346</v>
+        <v>400</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>368</v>
+        <v>422</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>394</v>
+        <v>490</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>66</v>
@@ -5833,13 +6121,13 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>278</v>
+        <v>332</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>347</v>
+        <v>401</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>369</v>
+        <v>423</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>55</v>
@@ -5848,18 +6136,18 @@
         <v>63</v>
       </c>
       <c r="F11" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>279</v>
+        <v>333</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>347</v>
+        <v>401</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>370</v>
+        <v>424</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>55</v>
@@ -5868,18 +6156,18 @@
         <v>63</v>
       </c>
       <c r="F12" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>280</v>
+        <v>334</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>347</v>
+        <v>401</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>371</v>
+        <v>425</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>55</v>
@@ -5888,18 +6176,18 @@
         <v>63</v>
       </c>
       <c r="F13" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>281</v>
+        <v>335</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>348</v>
+        <v>402</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>372</v>
+        <v>426</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>58</v>
@@ -5913,19 +6201,19 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>282</v>
+        <v>336</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>349</v>
+        <v>403</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>373</v>
+        <v>427</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>266</v>
+        <v>320</v>
       </c>
       <c r="F15" t="s">
         <v>70</v>
@@ -5933,13 +6221,13 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>283</v>
+        <v>337</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>217</v>
+        <v>428</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>57</v>
@@ -5948,7 +6236,7 @@
         <v>64</v>
       </c>
       <c r="F16" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5965,13 +6253,13 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>284</v>
+        <v>338</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>217</v>
+        <v>429</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>57</v>
@@ -5980,7 +6268,7 @@
         <v>64</v>
       </c>
       <c r="F18" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -5997,13 +6285,13 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>285</v>
+        <v>339</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>217</v>
+        <v>430</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>57</v>
@@ -6012,7 +6300,7 @@
         <v>64</v>
       </c>
       <c r="F20" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6029,13 +6317,13 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>286</v>
+        <v>340</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>217</v>
+        <v>431</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>57</v>
@@ -6044,7 +6332,7 @@
         <v>64</v>
       </c>
       <c r="F22" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6061,13 +6349,13 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>287</v>
+        <v>341</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>217</v>
+        <v>432</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>57</v>
@@ -6076,7 +6364,7 @@
         <v>64</v>
       </c>
       <c r="F24" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6093,13 +6381,13 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>288</v>
+        <v>342</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>217</v>
+        <v>433</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>57</v>
@@ -6108,7 +6396,7 @@
         <v>64</v>
       </c>
       <c r="F26" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6125,13 +6413,13 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>289</v>
+        <v>343</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>217</v>
+        <v>434</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>57</v>
@@ -6140,7 +6428,7 @@
         <v>64</v>
       </c>
       <c r="F28" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -6157,13 +6445,13 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>290</v>
+        <v>344</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>350</v>
+        <v>404</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>374</v>
+        <v>435</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>62</v>
@@ -6189,13 +6477,13 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>291</v>
+        <v>345</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>350</v>
+        <v>404</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>375</v>
+        <v>436</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>62</v>
@@ -6221,19 +6509,19 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>292</v>
+        <v>346</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>351</v>
+        <v>405</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>376</v>
+        <v>437</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>264</v>
+        <v>318</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>396</v>
+        <v>492</v>
       </c>
       <c r="F34" t="s">
         <v>73</v>
@@ -6241,13 +6529,13 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>293</v>
+        <v>347</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>352</v>
+        <v>406</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>377</v>
+        <v>438</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>57</v>
@@ -6261,13 +6549,13 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>294</v>
+        <v>348</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>353</v>
+        <v>407</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>378</v>
+        <v>439</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>60</v>
@@ -6276,18 +6564,18 @@
         <v>63</v>
       </c>
       <c r="F36" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>295</v>
+        <v>349</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>354</v>
+        <v>408</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>379</v>
+        <v>440</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>60</v>
@@ -6296,18 +6584,18 @@
         <v>63</v>
       </c>
       <c r="F37" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>296</v>
+        <v>350</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>355</v>
+        <v>409</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>380</v>
+        <v>441</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>60</v>
@@ -6316,18 +6604,18 @@
         <v>63</v>
       </c>
       <c r="F38" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>297</v>
+        <v>351</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>356</v>
+        <v>410</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>381</v>
+        <v>442</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>58</v>
@@ -6341,13 +6629,13 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>298</v>
+        <v>352</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>357</v>
+        <v>411</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>382</v>
+        <v>443</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>60</v>
@@ -6356,18 +6644,18 @@
         <v>63</v>
       </c>
       <c r="F40" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>299</v>
+        <v>353</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>358</v>
+        <v>412</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>383</v>
+        <v>444</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>60</v>
@@ -6376,18 +6664,18 @@
         <v>63</v>
       </c>
       <c r="F41" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>300</v>
+        <v>354</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>359</v>
+        <v>413</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>384</v>
+        <v>445</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>60</v>
@@ -6396,18 +6684,18 @@
         <v>63</v>
       </c>
       <c r="F42" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>301</v>
+        <v>355</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>360</v>
+        <v>414</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>385</v>
+        <v>446</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>55</v>
@@ -6421,19 +6709,19 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>302</v>
+        <v>356</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>361</v>
+        <v>415</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>386</v>
+        <v>447</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>397</v>
+        <v>493</v>
       </c>
       <c r="F44" t="s">
         <v>73</v>
@@ -6441,19 +6729,19 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>303</v>
+        <v>357</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>361</v>
+        <v>415</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>387</v>
+        <v>448</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>398</v>
+        <v>494</v>
       </c>
       <c r="F45" t="s">
         <v>73</v>
@@ -6461,13 +6749,13 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>304</v>
+        <v>358</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>244</v>
+        <v>449</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>62</v>
@@ -6476,7 +6764,7 @@
         <v>64</v>
       </c>
       <c r="F46" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -6493,13 +6781,13 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>305</v>
+        <v>359</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>244</v>
+        <v>450</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>62</v>
@@ -6508,7 +6796,7 @@
         <v>64</v>
       </c>
       <c r="F48" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -6525,13 +6813,13 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>306</v>
+        <v>360</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>244</v>
+        <v>451</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>62</v>
@@ -6540,7 +6828,7 @@
         <v>64</v>
       </c>
       <c r="F50" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -6557,13 +6845,13 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>307</v>
+        <v>361</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>244</v>
+        <v>452</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>62</v>
@@ -6572,7 +6860,7 @@
         <v>64</v>
       </c>
       <c r="F52" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -6589,13 +6877,13 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>308</v>
+        <v>362</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>244</v>
+        <v>453</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>62</v>
@@ -6604,7 +6892,7 @@
         <v>64</v>
       </c>
       <c r="F54" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -6621,13 +6909,13 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>309</v>
+        <v>363</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>244</v>
+        <v>454</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>62</v>
@@ -6636,7 +6924,7 @@
         <v>64</v>
       </c>
       <c r="F56" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -6653,13 +6941,13 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>310</v>
+        <v>364</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>244</v>
+        <v>455</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>62</v>
@@ -6668,7 +6956,7 @@
         <v>64</v>
       </c>
       <c r="F58" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -6685,13 +6973,13 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>311</v>
+        <v>365</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>250</v>
+        <v>456</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>61</v>
@@ -6700,7 +6988,7 @@
         <v>64</v>
       </c>
       <c r="F60" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -6717,13 +7005,13 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>312</v>
+        <v>366</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>250</v>
+        <v>457</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>61</v>
@@ -6732,7 +7020,7 @@
         <v>64</v>
       </c>
       <c r="F62" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -6749,13 +7037,13 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>313</v>
+        <v>367</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>250</v>
+        <v>458</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>61</v>
@@ -6764,7 +7052,7 @@
         <v>64</v>
       </c>
       <c r="F64" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -6781,13 +7069,13 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>314</v>
+        <v>368</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>250</v>
+        <v>459</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>61</v>
@@ -6796,7 +7084,7 @@
         <v>64</v>
       </c>
       <c r="F66" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -6813,13 +7101,13 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>315</v>
+        <v>369</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>388</v>
+        <v>460</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>61</v>
@@ -6845,13 +7133,13 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>316</v>
+        <v>370</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>389</v>
+        <v>461</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>61</v>
@@ -6877,13 +7165,13 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>317</v>
+        <v>371</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>250</v>
+        <v>462</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>61</v>
@@ -6892,7 +7180,7 @@
         <v>64</v>
       </c>
       <c r="F72" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -6909,13 +7197,13 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>318</v>
+        <v>372</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>390</v>
+        <v>463</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>61</v>
@@ -6941,13 +7229,13 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>319</v>
+        <v>373</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>250</v>
+        <v>464</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>61</v>
@@ -6956,7 +7244,7 @@
         <v>64</v>
       </c>
       <c r="F76" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -6973,13 +7261,13 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>320</v>
+        <v>374</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>250</v>
+        <v>465</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>61</v>
@@ -6988,7 +7276,7 @@
         <v>64</v>
       </c>
       <c r="F78" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -7005,13 +7293,13 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>321</v>
+        <v>375</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>254</v>
+        <v>466</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>61</v>
@@ -7020,7 +7308,7 @@
         <v>64</v>
       </c>
       <c r="F80" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -7037,13 +7325,13 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>322</v>
+        <v>376</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>254</v>
+        <v>467</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>61</v>
@@ -7052,7 +7340,7 @@
         <v>64</v>
       </c>
       <c r="F82" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -7069,13 +7357,13 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>323</v>
+        <v>377</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>254</v>
+        <v>468</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>61</v>
@@ -7084,7 +7372,7 @@
         <v>64</v>
       </c>
       <c r="F84" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -7101,13 +7389,13 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>324</v>
+        <v>378</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>254</v>
+        <v>469</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>61</v>
@@ -7116,7 +7404,7 @@
         <v>64</v>
       </c>
       <c r="F86" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -7133,13 +7421,13 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>325</v>
+        <v>379</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>254</v>
+        <v>470</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>61</v>
@@ -7148,7 +7436,7 @@
         <v>64</v>
       </c>
       <c r="F88" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -7165,13 +7453,13 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>326</v>
+        <v>380</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>254</v>
+        <v>471</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>61</v>
@@ -7180,7 +7468,7 @@
         <v>64</v>
       </c>
       <c r="F90" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -7197,13 +7485,13 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>327</v>
+        <v>381</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>254</v>
+        <v>472</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>61</v>
@@ -7212,7 +7500,7 @@
         <v>64</v>
       </c>
       <c r="F92" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -7229,13 +7517,13 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>328</v>
+        <v>382</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>210</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>261</v>
+        <v>473</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>61</v>
@@ -7244,7 +7532,7 @@
         <v>64</v>
       </c>
       <c r="F94" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -7261,13 +7549,13 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>329</v>
+        <v>383</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>210</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>261</v>
+        <v>474</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>61</v>
@@ -7276,7 +7564,7 @@
         <v>64</v>
       </c>
       <c r="F96" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -7293,13 +7581,13 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>330</v>
+        <v>384</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>210</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>261</v>
+        <v>475</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>61</v>
@@ -7308,7 +7596,7 @@
         <v>64</v>
       </c>
       <c r="F98" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -7325,13 +7613,13 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>331</v>
+        <v>385</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>210</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>261</v>
+        <v>476</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>61</v>
@@ -7340,7 +7628,7 @@
         <v>64</v>
       </c>
       <c r="F100" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -7357,13 +7645,13 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>332</v>
+        <v>386</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>210</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>261</v>
+        <v>477</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>61</v>
@@ -7372,7 +7660,7 @@
         <v>64</v>
       </c>
       <c r="F102" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -7389,13 +7677,13 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>333</v>
+        <v>387</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>210</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>261</v>
+        <v>478</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>61</v>
@@ -7404,7 +7692,7 @@
         <v>64</v>
       </c>
       <c r="F104" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -7421,13 +7709,13 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="1" t="s">
-        <v>334</v>
+        <v>388</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>210</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>261</v>
+        <v>479</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>61</v>
@@ -7436,7 +7724,7 @@
         <v>64</v>
       </c>
       <c r="F106" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -7453,13 +7741,13 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="1" t="s">
-        <v>335</v>
+        <v>389</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>362</v>
+        <v>416</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>391</v>
+        <v>480</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>61</v>
@@ -7485,13 +7773,13 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="1" t="s">
-        <v>336</v>
+        <v>390</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>363</v>
+        <v>417</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>392</v>
+        <v>481</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>58</v>
@@ -7505,13 +7793,13 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="1" t="s">
-        <v>337</v>
+        <v>391</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>211</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>262</v>
+        <v>482</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>58</v>
@@ -7520,7 +7808,7 @@
         <v>64</v>
       </c>
       <c r="F111" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -7537,13 +7825,13 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="1" t="s">
-        <v>338</v>
+        <v>392</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>211</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>262</v>
+        <v>483</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>58</v>
@@ -7552,7 +7840,7 @@
         <v>64</v>
       </c>
       <c r="F113" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -7569,13 +7857,13 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="1" t="s">
-        <v>339</v>
+        <v>393</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>211</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>262</v>
+        <v>484</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>58</v>
@@ -7584,7 +7872,7 @@
         <v>64</v>
       </c>
       <c r="F115" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -7601,13 +7889,13 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="1" t="s">
-        <v>340</v>
+        <v>394</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>211</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>262</v>
+        <v>485</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>58</v>
@@ -7616,7 +7904,7 @@
         <v>64</v>
       </c>
       <c r="F117" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -7633,13 +7921,13 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="1" t="s">
-        <v>341</v>
+        <v>395</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>211</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>262</v>
+        <v>486</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>58</v>
@@ -7648,7 +7936,7 @@
         <v>64</v>
       </c>
       <c r="F119" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -7665,13 +7953,13 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="1" t="s">
-        <v>342</v>
+        <v>396</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>211</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>262</v>
+        <v>487</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>58</v>
@@ -7680,7 +7968,7 @@
         <v>64</v>
       </c>
       <c r="F121" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -7697,13 +7985,13 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="1" t="s">
-        <v>343</v>
+        <v>397</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>211</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>262</v>
+        <v>488</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>58</v>
@@ -7712,7 +8000,7 @@
         <v>64</v>
       </c>
       <c r="F123" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
     </row>
     <row r="124" spans="1:6">

--- a/data-request/dreq_default.xlsx
+++ b/data-request/dreq_default.xlsx
@@ -669,37 +669,37 @@
     <t>Surface Upward Sensible Heat Flux</t>
   </si>
   <si>
-    <t>Specific Humidity at 1000 hPa at 1000 hPa</t>
-  </si>
-  <si>
-    <t>Specific Humidity at 200 hPa at 200 hPa</t>
-  </si>
-  <si>
-    <t>Specific Humidity at 250 hPa at 250 hPa</t>
-  </si>
-  <si>
-    <t>Specific Humidity at 300 hPa at 300 hPa</t>
-  </si>
-  <si>
-    <t>Specific Humidity at 400 hPa at 400 hPa</t>
-  </si>
-  <si>
-    <t>Specific Humidity at 500 hPa at 500 hPa</t>
+    <t>Specific Humidity at 1000 hPa</t>
+  </si>
+  <si>
+    <t>Specific Humidity at 200 hPa</t>
+  </si>
+  <si>
+    <t>Specific Humidity at 250 hPa</t>
+  </si>
+  <si>
+    <t>Specific Humidity at 300 hPa</t>
+  </si>
+  <si>
+    <t>Specific Humidity at 400 hPa</t>
+  </si>
+  <si>
+    <t>Specific Humidity at 500 hPa</t>
   </si>
   <si>
     <t>Specific Humidity at 50m</t>
   </si>
   <si>
-    <t>Specific Humidity at 600 hPa at 600 hPa</t>
-  </si>
-  <si>
-    <t>Specific Humidity at 700 hPa at 700 hPa</t>
-  </si>
-  <si>
-    <t>Specific Humidity at 850 hPa at 850 hPa</t>
-  </si>
-  <si>
-    <t>Specific Humidity at 925 hPa at 925 hPa</t>
+    <t>Specific Humidity at 600 hPa</t>
+  </si>
+  <si>
+    <t>Specific Humidity at 700 hPa</t>
+  </si>
+  <si>
+    <t>Specific Humidity at 850 hPa</t>
+  </si>
+  <si>
+    <t>Specific Humidity at 925 hPa</t>
   </si>
   <si>
     <t>Soil Frozen Water Content</t>
@@ -777,37 +777,37 @@
     <t>Daily Duration of Sunshine</t>
   </si>
   <si>
-    <t>Air Temperature at 1000 hPa at 1000 hPa</t>
-  </si>
-  <si>
-    <t>Air Temperature at 200 hPa at 200 hPa</t>
-  </si>
-  <si>
-    <t>Air Temperature at 250 hPa at 250 hPa</t>
-  </si>
-  <si>
-    <t>Air Temperature at 300 hPa at 300 hPa</t>
-  </si>
-  <si>
-    <t>Air Temperature at 400 hPa at 400 hPa</t>
-  </si>
-  <si>
-    <t>Air Temperature at 500 hPa at 500 hPa</t>
+    <t>Air Temperature at 1000 hPa</t>
+  </si>
+  <si>
+    <t>Air Temperature at 200 hPa</t>
+  </si>
+  <si>
+    <t>Air Temperature at 250 hPa</t>
+  </si>
+  <si>
+    <t>Air Temperature at 300 hPa</t>
+  </si>
+  <si>
+    <t>Air Temperature at 400 hPa</t>
+  </si>
+  <si>
+    <t>Air Temperature at 500 hPa</t>
   </si>
   <si>
     <t>Air Temperature at 50m</t>
   </si>
   <si>
-    <t>Air Temperature at 600 hPa at 600 hPa</t>
-  </si>
-  <si>
-    <t>Air Temperature at 700 hPa at 700 hPa</t>
-  </si>
-  <si>
-    <t>Air Temperature at 850 hPa at 850 hPa</t>
-  </si>
-  <si>
-    <t>Air Temperature at 925 hPa at 925 hPa</t>
+    <t>Air Temperature at 600 hPa</t>
+  </si>
+  <si>
+    <t>Air Temperature at 700 hPa</t>
+  </si>
+  <si>
+    <t>Air Temperature at 850 hPa</t>
+  </si>
+  <si>
+    <t>Air Temperature at 925 hPa</t>
   </si>
   <si>
     <t>Surface Downward Eastward Wind Stress</t>
@@ -822,7 +822,7 @@
     <t>Temperature of Soil</t>
   </si>
   <si>
-    <t>Eastward Wind at 1000 hPa at 1000 hPa</t>
+    <t>Eastward Wind at 1000 hPa</t>
   </si>
   <si>
     <t>Eastward Wind at 100m</t>
@@ -831,37 +831,37 @@
     <t>Eastward Wind at 150m</t>
   </si>
   <si>
-    <t>Eastward Wind at 200 hPa at 200 hPa</t>
-  </si>
-  <si>
-    <t>Eastward Wind at 250 hPa at 250 hPa</t>
-  </si>
-  <si>
-    <t>Eastward Wind at 300 hPa at 300 hPa</t>
-  </si>
-  <si>
-    <t>Eastward Wind at 400 hPa at 400 hPa</t>
-  </si>
-  <si>
-    <t>Eastward Wind at 500 hPa at 500 hPa</t>
+    <t>Eastward Wind at 200 hPa</t>
+  </si>
+  <si>
+    <t>Eastward Wind at 250 hPa</t>
+  </si>
+  <si>
+    <t>Eastward Wind at 300 hPa</t>
+  </si>
+  <si>
+    <t>Eastward Wind at 400 hPa</t>
+  </si>
+  <si>
+    <t>Eastward Wind at 500 hPa</t>
   </si>
   <si>
     <t>Eastward Wind at 50m</t>
   </si>
   <si>
-    <t>Eastward Wind at 600 hPa at 600 hPa</t>
-  </si>
-  <si>
-    <t>Eastward Wind at 700 hPa at 700 hPa</t>
-  </si>
-  <si>
-    <t>Eastward Wind at 850 hPa at 850 hPa</t>
-  </si>
-  <si>
-    <t>Eastward Wind at 925 hPa at 925 hPa</t>
-  </si>
-  <si>
-    <t>Northward Wind at 1000 hPa at 1000 hPa</t>
+    <t>Eastward Wind at 600 hPa</t>
+  </si>
+  <si>
+    <t>Eastward Wind at 700 hPa</t>
+  </si>
+  <si>
+    <t>Eastward Wind at 850 hPa</t>
+  </si>
+  <si>
+    <t>Eastward Wind at 925 hPa</t>
+  </si>
+  <si>
+    <t>Northward Wind at 1000 hPa</t>
   </si>
   <si>
     <t>Northward Wind at 100m</t>
@@ -870,103 +870,103 @@
     <t>Northward Wind at 150m</t>
   </si>
   <si>
-    <t>Northward Wind at 200 hPa at 200 hPa</t>
+    <t>Northward Wind at 200 hPa</t>
   </si>
   <si>
     <t>Northward Wind at 200m</t>
   </si>
   <si>
-    <t>Northward Wind at 250 hPa at 250 hPa</t>
+    <t>Northward Wind at 250 hPa</t>
   </si>
   <si>
     <t>Northward Wind at 250m</t>
   </si>
   <si>
-    <t>Northward Wind at 300 hPa at 300 hPa</t>
+    <t>Northward Wind at 300 hPa</t>
   </si>
   <si>
     <t>Northward Wind at 300m</t>
   </si>
   <si>
-    <t>Northward Wind at 400 hPa at 400 hPa</t>
-  </si>
-  <si>
-    <t>Northward Wind at 500 hPa at 500 hPa</t>
+    <t>Northward Wind at 400 hPa</t>
+  </si>
+  <si>
+    <t>Northward Wind at 500 hPa</t>
   </si>
   <si>
     <t>Northward Wind at 50m</t>
   </si>
   <si>
-    <t>Northward Wind at 600 hPa at 600 hPa</t>
-  </si>
-  <si>
-    <t>Northward Wind at 700 hPa at 700 hPa</t>
-  </si>
-  <si>
-    <t>Northward Wind at 850 hPa at 850 hPa</t>
-  </si>
-  <si>
-    <t>Northward Wind at 925 hPa at 925 hPa</t>
-  </si>
-  <si>
-    <t>Upward Air Velocity at 1000 hPa at 1000 hPa</t>
-  </si>
-  <si>
-    <t>Upward Air Velocity at 200 hPa at 200 hPa</t>
-  </si>
-  <si>
-    <t>Upward Air Velocity at 250 hPa at 250 hPa</t>
-  </si>
-  <si>
-    <t>Upward Air Velocity at 300 hPa at 300 hPa</t>
-  </si>
-  <si>
-    <t>Upward Air Velocity at 400 hPa at 400 hPa</t>
-  </si>
-  <si>
-    <t>Upward Air Velocity at 500 hPa at 500 hPa</t>
-  </si>
-  <si>
-    <t>Upward Air Velocity at 600 hPa at 600 hPa</t>
-  </si>
-  <si>
-    <t>Upward Air Velocity at 700 hPa at 700 hPa</t>
-  </si>
-  <si>
-    <t>Upward Air Velocity at 850 hPa at 850 hPa</t>
-  </si>
-  <si>
-    <t>Upward Air Velocity at 925 hPa at 925 hPa</t>
-  </si>
-  <si>
-    <t>Geopotential Height at 1000 hPa at 1000 hPa</t>
-  </si>
-  <si>
-    <t>Geopotential Height at 200 hPa at 200 hPa</t>
-  </si>
-  <si>
-    <t>Geopotential Height at 250 hPa at 250 hPa</t>
-  </si>
-  <si>
-    <t>Geopotential Height at 300 hPa at 300 hPa</t>
-  </si>
-  <si>
-    <t>Geopotential Height at 400 hPa at 400 hPa</t>
-  </si>
-  <si>
-    <t>Geopotential Height at 500 hPa at 500 hPa</t>
-  </si>
-  <si>
-    <t>Geopotential Height at 600 hPa at 600 hPa</t>
-  </si>
-  <si>
-    <t>Geopotential Height at 700 hPa at 700 hPa</t>
-  </si>
-  <si>
-    <t>Geopotential Height at 850 hPa at 850 hPa</t>
-  </si>
-  <si>
-    <t>Geopotential Height at 925 hPa at 925 hPa</t>
+    <t>Northward Wind at 600 hPa</t>
+  </si>
+  <si>
+    <t>Northward Wind at 700 hPa</t>
+  </si>
+  <si>
+    <t>Northward Wind at 850 hPa</t>
+  </si>
+  <si>
+    <t>Northward Wind at 925 hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 1000 hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 200 hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 250 hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 300 hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 400 hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 500 hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 600 hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 700 hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 850 hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 925 hPa</t>
+  </si>
+  <si>
+    <t>Geopotential Height at 1000 hPa</t>
+  </si>
+  <si>
+    <t>Geopotential Height at 200 hPa</t>
+  </si>
+  <si>
+    <t>Geopotential Height at 250 hPa</t>
+  </si>
+  <si>
+    <t>Geopotential Height at 300 hPa</t>
+  </si>
+  <si>
+    <t>Geopotential Height at 400 hPa</t>
+  </si>
+  <si>
+    <t>Geopotential Height at 500 hPa</t>
+  </si>
+  <si>
+    <t>Geopotential Height at 600 hPa</t>
+  </si>
+  <si>
+    <t>Geopotential Height at 700 hPa</t>
+  </si>
+  <si>
+    <t>Geopotential Height at 850 hPa</t>
+  </si>
+  <si>
+    <t>Geopotential Height at 925 hPa</t>
   </si>
   <si>
     <t>Height of Boundary Layer</t>
@@ -1302,25 +1302,25 @@
     <t>Potential Evapotranspiration</t>
   </si>
   <si>
-    <t>Specific Humidity at 10 hPa at 10 hPa</t>
-  </si>
-  <si>
-    <t>Specific Humidity at 100 hPa at 100 hPa</t>
-  </si>
-  <si>
-    <t>Specific Humidity at 150 hPa at 150 hPa</t>
-  </si>
-  <si>
-    <t>Specific Humidity at 20 hPa at 20 hPa</t>
-  </si>
-  <si>
-    <t>Specific Humidity at 30 hPa at 30 hPa</t>
-  </si>
-  <si>
-    <t>Specific Humidity at 50 hPa at 50 hPa</t>
-  </si>
-  <si>
-    <t>Specific Humidity at 70 hPa at 70 hPa</t>
+    <t>Specific Humidity at 10 hPa</t>
+  </si>
+  <si>
+    <t>Specific Humidity at 100 hPa</t>
+  </si>
+  <si>
+    <t>Specific Humidity at 150 hPa</t>
+  </si>
+  <si>
+    <t>Specific Humidity at 20 hPa</t>
+  </si>
+  <si>
+    <t>Specific Humidity at 30 hPa</t>
+  </si>
+  <si>
+    <t>Specific Humidity at 50 hPa</t>
+  </si>
+  <si>
+    <t>Specific Humidity at 70 hPa</t>
   </si>
   <si>
     <t>Lifted Index</t>
@@ -1365,37 +1365,37 @@
     <t>Percentage of the Grid Cell Occupied by Urban Area</t>
   </si>
   <si>
-    <t>Air Temperature at 10 hPa at 10 hPa</t>
-  </si>
-  <si>
-    <t>Air Temperature at 100 hPa at 100 hPa</t>
-  </si>
-  <si>
-    <t>Air Temperature at 150 hPa at 150 hPa</t>
-  </si>
-  <si>
-    <t>Air Temperature at 20 hPa at 20 hPa</t>
-  </si>
-  <si>
-    <t>Air Temperature at 30 hPa at 30 hPa</t>
-  </si>
-  <si>
-    <t>Air Temperature at 50 hPa at 50 hPa</t>
-  </si>
-  <si>
-    <t>Air Temperature at 70 hPa at 70 hPa</t>
-  </si>
-  <si>
-    <t>Eastward Wind at 10 hPa at 10 hPa</t>
-  </si>
-  <si>
-    <t>Eastward Wind at 100 hPa at 100 hPa</t>
-  </si>
-  <si>
-    <t>Eastward Wind at 150 hPa at 150 hPa</t>
-  </si>
-  <si>
-    <t>Eastward Wind at 20 hPa at 20 hPa</t>
+    <t>Air Temperature at 10 hPa</t>
+  </si>
+  <si>
+    <t>Air Temperature at 100 hPa</t>
+  </si>
+  <si>
+    <t>Air Temperature at 150 hPa</t>
+  </si>
+  <si>
+    <t>Air Temperature at 20 hPa</t>
+  </si>
+  <si>
+    <t>Air Temperature at 30 hPa</t>
+  </si>
+  <si>
+    <t>Air Temperature at 50 hPa</t>
+  </si>
+  <si>
+    <t>Air Temperature at 70 hPa</t>
+  </si>
+  <si>
+    <t>Eastward Wind at 10 hPa</t>
+  </si>
+  <si>
+    <t>Eastward Wind at 100 hPa</t>
+  </si>
+  <si>
+    <t>Eastward Wind at 150 hPa</t>
+  </si>
+  <si>
+    <t>Eastward Wind at 20 hPa</t>
   </si>
   <si>
     <t>Eastward Wind at 200m</t>
@@ -1404,58 +1404,58 @@
     <t>Eastward Wind at 250m</t>
   </si>
   <si>
-    <t>Eastward Wind at 30 hPa at 30 hPa</t>
+    <t>Eastward Wind at 30 hPa</t>
   </si>
   <si>
     <t>Eastward Wind at 300m</t>
   </si>
   <si>
-    <t>Eastward Wind at 50 hPa at 50 hPa</t>
-  </si>
-  <si>
-    <t>Eastward Wind at 70 hPa at 70 hPa</t>
-  </si>
-  <si>
-    <t>Northward Wind at 10 hPa at 10 hPa</t>
-  </si>
-  <si>
-    <t>Northward Wind at 100 hPa at 100 hPa</t>
-  </si>
-  <si>
-    <t>Northward Wind at 150 hPa at 150 hPa</t>
-  </si>
-  <si>
-    <t>Northward Wind at 20 hPa at 20 hPa</t>
-  </si>
-  <si>
-    <t>Northward Wind at 30 hPa at 30 hPa</t>
-  </si>
-  <si>
-    <t>Northward Wind at 50 hPa at 50 hPa</t>
-  </si>
-  <si>
-    <t>Northward Wind at 70 hPa at 70 hPa</t>
-  </si>
-  <si>
-    <t>Upward Air Velocity at 10 hPa at 10 hPa</t>
-  </si>
-  <si>
-    <t>Upward Air Velocity at 100 hPa at 100 hPa</t>
-  </si>
-  <si>
-    <t>Upward Air Velocity at 150 hPa at 150 hPa</t>
-  </si>
-  <si>
-    <t>Upward Air Velocity at 20 hPa at 20 hPa</t>
-  </si>
-  <si>
-    <t>Upward Air Velocity at 30 hPa at 30 hPa</t>
-  </si>
-  <si>
-    <t>Upward Air Velocity at 50 hPa at 50 hPa</t>
-  </si>
-  <si>
-    <t>Upward Air Velocity at 70 hPa at 70 hPa</t>
+    <t>Eastward Wind at 50 hPa</t>
+  </si>
+  <si>
+    <t>Eastward Wind at 70 hPa</t>
+  </si>
+  <si>
+    <t>Northward Wind at 10 hPa</t>
+  </si>
+  <si>
+    <t>Northward Wind at 100 hPa</t>
+  </si>
+  <si>
+    <t>Northward Wind at 150 hPa</t>
+  </si>
+  <si>
+    <t>Northward Wind at 20 hPa</t>
+  </si>
+  <si>
+    <t>Northward Wind at 30 hPa</t>
+  </si>
+  <si>
+    <t>Northward Wind at 50 hPa</t>
+  </si>
+  <si>
+    <t>Northward Wind at 70 hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 10 hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 100 hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 150 hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 20 hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 30 hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 50 hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 70 hPa</t>
   </si>
   <si>
     <t>Daily Maximum Near-Surface Wind Speed of Gust</t>
@@ -1464,25 +1464,25 @@
     <t>Surface Roughness Length</t>
   </si>
   <si>
-    <t>Geopotential Height at 10 hPa at 10 hPa</t>
-  </si>
-  <si>
-    <t>Geopotential Height at 100 hPa at 100 hPa</t>
-  </si>
-  <si>
-    <t>Geopotential Height at 150 hPa at 150 hPa</t>
-  </si>
-  <si>
-    <t>Geopotential Height at 20 hPa at 20 hPa</t>
-  </si>
-  <si>
-    <t>Geopotential Height at 30 hPa at 30 hPa</t>
-  </si>
-  <si>
-    <t>Geopotential Height at 50 hPa at 50 hPa</t>
-  </si>
-  <si>
-    <t>Geopotential Height at 70 hPa at 70 hPa</t>
+    <t>Geopotential Height at 10 hPa</t>
+  </si>
+  <si>
+    <t>Geopotential Height at 100 hPa</t>
+  </si>
+  <si>
+    <t>Geopotential Height at 150 hPa</t>
+  </si>
+  <si>
+    <t>Geopotential Height at 20 hPa</t>
+  </si>
+  <si>
+    <t>Geopotential Height at 30 hPa</t>
+  </si>
+  <si>
+    <t>Geopotential Height at 50 hPa</t>
+  </si>
+  <si>
+    <t>Geopotential Height at 70 hPa</t>
   </si>
   <si>
     <t>m2</t>

--- a/data-request/dreq_default.xlsx
+++ b/data-request/dreq_default.xlsx
@@ -669,37 +669,37 @@
     <t>Surface Upward Sensible Heat Flux</t>
   </si>
   <si>
-    <t>Specific Humidity at 1000 hPa</t>
-  </si>
-  <si>
-    <t>Specific Humidity at 200 hPa</t>
-  </si>
-  <si>
-    <t>Specific Humidity at 250 hPa</t>
-  </si>
-  <si>
-    <t>Specific Humidity at 300 hPa</t>
-  </si>
-  <si>
-    <t>Specific Humidity at 400 hPa</t>
-  </si>
-  <si>
-    <t>Specific Humidity at 500 hPa</t>
+    <t>Specific Humidity at 1000hPa</t>
+  </si>
+  <si>
+    <t>Specific Humidity at 200hPa</t>
+  </si>
+  <si>
+    <t>Specific Humidity at 250hPa</t>
+  </si>
+  <si>
+    <t>Specific Humidity at 300hPa</t>
+  </si>
+  <si>
+    <t>Specific Humidity at 400hPa</t>
+  </si>
+  <si>
+    <t>Specific Humidity at 500hPa</t>
   </si>
   <si>
     <t>Specific Humidity at 50m</t>
   </si>
   <si>
-    <t>Specific Humidity at 600 hPa</t>
-  </si>
-  <si>
-    <t>Specific Humidity at 700 hPa</t>
-  </si>
-  <si>
-    <t>Specific Humidity at 850 hPa</t>
-  </si>
-  <si>
-    <t>Specific Humidity at 925 hPa</t>
+    <t>Specific Humidity at 600hPa</t>
+  </si>
+  <si>
+    <t>Specific Humidity at 700hPa</t>
+  </si>
+  <si>
+    <t>Specific Humidity at 850hPa</t>
+  </si>
+  <si>
+    <t>Specific Humidity at 925hPa</t>
   </si>
   <si>
     <t>Soil Frozen Water Content</t>
@@ -777,37 +777,37 @@
     <t>Daily Duration of Sunshine</t>
   </si>
   <si>
-    <t>Air Temperature at 1000 hPa</t>
-  </si>
-  <si>
-    <t>Air Temperature at 200 hPa</t>
-  </si>
-  <si>
-    <t>Air Temperature at 250 hPa</t>
-  </si>
-  <si>
-    <t>Air Temperature at 300 hPa</t>
-  </si>
-  <si>
-    <t>Air Temperature at 400 hPa</t>
-  </si>
-  <si>
-    <t>Air Temperature at 500 hPa</t>
+    <t>Air Temperature at 1000hPa</t>
+  </si>
+  <si>
+    <t>Air Temperature at 200hPa</t>
+  </si>
+  <si>
+    <t>Air Temperature at 250hPa</t>
+  </si>
+  <si>
+    <t>Air Temperature at 300hPa</t>
+  </si>
+  <si>
+    <t>Air Temperature at 400hPa</t>
+  </si>
+  <si>
+    <t>Air Temperature at 500hPa</t>
   </si>
   <si>
     <t>Air Temperature at 50m</t>
   </si>
   <si>
-    <t>Air Temperature at 600 hPa</t>
-  </si>
-  <si>
-    <t>Air Temperature at 700 hPa</t>
-  </si>
-  <si>
-    <t>Air Temperature at 850 hPa</t>
-  </si>
-  <si>
-    <t>Air Temperature at 925 hPa</t>
+    <t>Air Temperature at 600hPa</t>
+  </si>
+  <si>
+    <t>Air Temperature at 700hPa</t>
+  </si>
+  <si>
+    <t>Air Temperature at 850hPa</t>
+  </si>
+  <si>
+    <t>Air Temperature at 925hPa</t>
   </si>
   <si>
     <t>Surface Downward Eastward Wind Stress</t>
@@ -822,7 +822,7 @@
     <t>Temperature of Soil</t>
   </si>
   <si>
-    <t>Eastward Wind at 1000 hPa</t>
+    <t>Eastward Wind at 1000hPa</t>
   </si>
   <si>
     <t>Eastward Wind at 100m</t>
@@ -831,37 +831,37 @@
     <t>Eastward Wind at 150m</t>
   </si>
   <si>
-    <t>Eastward Wind at 200 hPa</t>
-  </si>
-  <si>
-    <t>Eastward Wind at 250 hPa</t>
-  </si>
-  <si>
-    <t>Eastward Wind at 300 hPa</t>
-  </si>
-  <si>
-    <t>Eastward Wind at 400 hPa</t>
-  </si>
-  <si>
-    <t>Eastward Wind at 500 hPa</t>
+    <t>Eastward Wind at 200hPa</t>
+  </si>
+  <si>
+    <t>Eastward Wind at 250hPa</t>
+  </si>
+  <si>
+    <t>Eastward Wind at 300hPa</t>
+  </si>
+  <si>
+    <t>Eastward Wind at 400hPa</t>
+  </si>
+  <si>
+    <t>Eastward Wind at 500hPa</t>
   </si>
   <si>
     <t>Eastward Wind at 50m</t>
   </si>
   <si>
-    <t>Eastward Wind at 600 hPa</t>
-  </si>
-  <si>
-    <t>Eastward Wind at 700 hPa</t>
-  </si>
-  <si>
-    <t>Eastward Wind at 850 hPa</t>
-  </si>
-  <si>
-    <t>Eastward Wind at 925 hPa</t>
-  </si>
-  <si>
-    <t>Northward Wind at 1000 hPa</t>
+    <t>Eastward Wind at 600hPa</t>
+  </si>
+  <si>
+    <t>Eastward Wind at 700hPa</t>
+  </si>
+  <si>
+    <t>Eastward Wind at 850hPa</t>
+  </si>
+  <si>
+    <t>Eastward Wind at 925hPa</t>
+  </si>
+  <si>
+    <t>Northward Wind at 1000hPa</t>
   </si>
   <si>
     <t>Northward Wind at 100m</t>
@@ -870,103 +870,103 @@
     <t>Northward Wind at 150m</t>
   </si>
   <si>
-    <t>Northward Wind at 200 hPa</t>
+    <t>Northward Wind at 200hPa</t>
   </si>
   <si>
     <t>Northward Wind at 200m</t>
   </si>
   <si>
-    <t>Northward Wind at 250 hPa</t>
+    <t>Northward Wind at 250hPa</t>
   </si>
   <si>
     <t>Northward Wind at 250m</t>
   </si>
   <si>
-    <t>Northward Wind at 300 hPa</t>
+    <t>Northward Wind at 300hPa</t>
   </si>
   <si>
     <t>Northward Wind at 300m</t>
   </si>
   <si>
-    <t>Northward Wind at 400 hPa</t>
-  </si>
-  <si>
-    <t>Northward Wind at 500 hPa</t>
+    <t>Northward Wind at 400hPa</t>
+  </si>
+  <si>
+    <t>Northward Wind at 500hPa</t>
   </si>
   <si>
     <t>Northward Wind at 50m</t>
   </si>
   <si>
-    <t>Northward Wind at 600 hPa</t>
-  </si>
-  <si>
-    <t>Northward Wind at 700 hPa</t>
-  </si>
-  <si>
-    <t>Northward Wind at 850 hPa</t>
-  </si>
-  <si>
-    <t>Northward Wind at 925 hPa</t>
-  </si>
-  <si>
-    <t>Upward Air Velocity at 1000 hPa</t>
-  </si>
-  <si>
-    <t>Upward Air Velocity at 200 hPa</t>
-  </si>
-  <si>
-    <t>Upward Air Velocity at 250 hPa</t>
-  </si>
-  <si>
-    <t>Upward Air Velocity at 300 hPa</t>
-  </si>
-  <si>
-    <t>Upward Air Velocity at 400 hPa</t>
-  </si>
-  <si>
-    <t>Upward Air Velocity at 500 hPa</t>
-  </si>
-  <si>
-    <t>Upward Air Velocity at 600 hPa</t>
-  </si>
-  <si>
-    <t>Upward Air Velocity at 700 hPa</t>
-  </si>
-  <si>
-    <t>Upward Air Velocity at 850 hPa</t>
-  </si>
-  <si>
-    <t>Upward Air Velocity at 925 hPa</t>
-  </si>
-  <si>
-    <t>Geopotential Height at 1000 hPa</t>
-  </si>
-  <si>
-    <t>Geopotential Height at 200 hPa</t>
-  </si>
-  <si>
-    <t>Geopotential Height at 250 hPa</t>
-  </si>
-  <si>
-    <t>Geopotential Height at 300 hPa</t>
-  </si>
-  <si>
-    <t>Geopotential Height at 400 hPa</t>
-  </si>
-  <si>
-    <t>Geopotential Height at 500 hPa</t>
-  </si>
-  <si>
-    <t>Geopotential Height at 600 hPa</t>
-  </si>
-  <si>
-    <t>Geopotential Height at 700 hPa</t>
-  </si>
-  <si>
-    <t>Geopotential Height at 850 hPa</t>
-  </si>
-  <si>
-    <t>Geopotential Height at 925 hPa</t>
+    <t>Northward Wind at 600hPa</t>
+  </si>
+  <si>
+    <t>Northward Wind at 700hPa</t>
+  </si>
+  <si>
+    <t>Northward Wind at 850hPa</t>
+  </si>
+  <si>
+    <t>Northward Wind at 925hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 1000hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 200hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 250hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 300hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 400hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 500hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 600hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 700hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 850hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 925hPa</t>
+  </si>
+  <si>
+    <t>Geopotential Height at 1000hPa</t>
+  </si>
+  <si>
+    <t>Geopotential Height at 200hPa</t>
+  </si>
+  <si>
+    <t>Geopotential Height at 250hPa</t>
+  </si>
+  <si>
+    <t>Geopotential Height at 300hPa</t>
+  </si>
+  <si>
+    <t>Geopotential Height at 400hPa</t>
+  </si>
+  <si>
+    <t>Geopotential Height at 500hPa</t>
+  </si>
+  <si>
+    <t>Geopotential Height at 600hPa</t>
+  </si>
+  <si>
+    <t>Geopotential Height at 700hPa</t>
+  </si>
+  <si>
+    <t>Geopotential Height at 850hPa</t>
+  </si>
+  <si>
+    <t>Geopotential Height at 925hPa</t>
   </si>
   <si>
     <t>Height of Boundary Layer</t>
@@ -1302,25 +1302,25 @@
     <t>Potential Evapotranspiration</t>
   </si>
   <si>
-    <t>Specific Humidity at 10 hPa</t>
-  </si>
-  <si>
-    <t>Specific Humidity at 100 hPa</t>
-  </si>
-  <si>
-    <t>Specific Humidity at 150 hPa</t>
-  </si>
-  <si>
-    <t>Specific Humidity at 20 hPa</t>
-  </si>
-  <si>
-    <t>Specific Humidity at 30 hPa</t>
-  </si>
-  <si>
-    <t>Specific Humidity at 50 hPa</t>
-  </si>
-  <si>
-    <t>Specific Humidity at 70 hPa</t>
+    <t>Specific Humidity at 10hPa</t>
+  </si>
+  <si>
+    <t>Specific Humidity at 100hPa</t>
+  </si>
+  <si>
+    <t>Specific Humidity at 150hPa</t>
+  </si>
+  <si>
+    <t>Specific Humidity at 20hPa</t>
+  </si>
+  <si>
+    <t>Specific Humidity at 30hPa</t>
+  </si>
+  <si>
+    <t>Specific Humidity at 50hPa</t>
+  </si>
+  <si>
+    <t>Specific Humidity at 70hPa</t>
   </si>
   <si>
     <t>Lifted Index</t>
@@ -1365,37 +1365,37 @@
     <t>Percentage of the Grid Cell Occupied by Urban Area</t>
   </si>
   <si>
-    <t>Air Temperature at 10 hPa</t>
-  </si>
-  <si>
-    <t>Air Temperature at 100 hPa</t>
-  </si>
-  <si>
-    <t>Air Temperature at 150 hPa</t>
-  </si>
-  <si>
-    <t>Air Temperature at 20 hPa</t>
-  </si>
-  <si>
-    <t>Air Temperature at 30 hPa</t>
-  </si>
-  <si>
-    <t>Air Temperature at 50 hPa</t>
-  </si>
-  <si>
-    <t>Air Temperature at 70 hPa</t>
-  </si>
-  <si>
-    <t>Eastward Wind at 10 hPa</t>
-  </si>
-  <si>
-    <t>Eastward Wind at 100 hPa</t>
-  </si>
-  <si>
-    <t>Eastward Wind at 150 hPa</t>
-  </si>
-  <si>
-    <t>Eastward Wind at 20 hPa</t>
+    <t>Air Temperature at 10hPa</t>
+  </si>
+  <si>
+    <t>Air Temperature at 100hPa</t>
+  </si>
+  <si>
+    <t>Air Temperature at 150hPa</t>
+  </si>
+  <si>
+    <t>Air Temperature at 20hPa</t>
+  </si>
+  <si>
+    <t>Air Temperature at 30hPa</t>
+  </si>
+  <si>
+    <t>Air Temperature at 50hPa</t>
+  </si>
+  <si>
+    <t>Air Temperature at 70hPa</t>
+  </si>
+  <si>
+    <t>Eastward Wind at 10hPa</t>
+  </si>
+  <si>
+    <t>Eastward Wind at 100hPa</t>
+  </si>
+  <si>
+    <t>Eastward Wind at 150hPa</t>
+  </si>
+  <si>
+    <t>Eastward Wind at 20hPa</t>
   </si>
   <si>
     <t>Eastward Wind at 200m</t>
@@ -1404,58 +1404,58 @@
     <t>Eastward Wind at 250m</t>
   </si>
   <si>
-    <t>Eastward Wind at 30 hPa</t>
+    <t>Eastward Wind at 30hPa</t>
   </si>
   <si>
     <t>Eastward Wind at 300m</t>
   </si>
   <si>
-    <t>Eastward Wind at 50 hPa</t>
-  </si>
-  <si>
-    <t>Eastward Wind at 70 hPa</t>
-  </si>
-  <si>
-    <t>Northward Wind at 10 hPa</t>
-  </si>
-  <si>
-    <t>Northward Wind at 100 hPa</t>
-  </si>
-  <si>
-    <t>Northward Wind at 150 hPa</t>
-  </si>
-  <si>
-    <t>Northward Wind at 20 hPa</t>
-  </si>
-  <si>
-    <t>Northward Wind at 30 hPa</t>
-  </si>
-  <si>
-    <t>Northward Wind at 50 hPa</t>
-  </si>
-  <si>
-    <t>Northward Wind at 70 hPa</t>
-  </si>
-  <si>
-    <t>Upward Air Velocity at 10 hPa</t>
-  </si>
-  <si>
-    <t>Upward Air Velocity at 100 hPa</t>
-  </si>
-  <si>
-    <t>Upward Air Velocity at 150 hPa</t>
-  </si>
-  <si>
-    <t>Upward Air Velocity at 20 hPa</t>
-  </si>
-  <si>
-    <t>Upward Air Velocity at 30 hPa</t>
-  </si>
-  <si>
-    <t>Upward Air Velocity at 50 hPa</t>
-  </si>
-  <si>
-    <t>Upward Air Velocity at 70 hPa</t>
+    <t>Eastward Wind at 50hPa</t>
+  </si>
+  <si>
+    <t>Eastward Wind at 70hPa</t>
+  </si>
+  <si>
+    <t>Northward Wind at 10hPa</t>
+  </si>
+  <si>
+    <t>Northward Wind at 100hPa</t>
+  </si>
+  <si>
+    <t>Northward Wind at 150hPa</t>
+  </si>
+  <si>
+    <t>Northward Wind at 20hPa</t>
+  </si>
+  <si>
+    <t>Northward Wind at 30hPa</t>
+  </si>
+  <si>
+    <t>Northward Wind at 50hPa</t>
+  </si>
+  <si>
+    <t>Northward Wind at 70hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 10hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 100hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 150hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 20hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 30hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 50hPa</t>
+  </si>
+  <si>
+    <t>Upward Air Velocity at 70hPa</t>
   </si>
   <si>
     <t>Daily Maximum Near-Surface Wind Speed of Gust</t>
@@ -1464,25 +1464,25 @@
     <t>Surface Roughness Length</t>
   </si>
   <si>
-    <t>Geopotential Height at 10 hPa</t>
-  </si>
-  <si>
-    <t>Geopotential Height at 100 hPa</t>
-  </si>
-  <si>
-    <t>Geopotential Height at 150 hPa</t>
-  </si>
-  <si>
-    <t>Geopotential Height at 20 hPa</t>
-  </si>
-  <si>
-    <t>Geopotential Height at 30 hPa</t>
-  </si>
-  <si>
-    <t>Geopotential Height at 50 hPa</t>
-  </si>
-  <si>
-    <t>Geopotential Height at 70 hPa</t>
+    <t>Geopotential Height at 10hPa</t>
+  </si>
+  <si>
+    <t>Geopotential Height at 100hPa</t>
+  </si>
+  <si>
+    <t>Geopotential Height at 150hPa</t>
+  </si>
+  <si>
+    <t>Geopotential Height at 20hPa</t>
+  </si>
+  <si>
+    <t>Geopotential Height at 30hPa</t>
+  </si>
+  <si>
+    <t>Geopotential Height at 50hPa</t>
+  </si>
+  <si>
+    <t>Geopotential Height at 70hPa</t>
   </si>
   <si>
     <t>m2</t>

--- a/data-request/dreq_default.xlsx
+++ b/data-request/dreq_default.xlsx
@@ -1497,7 +1497,7 @@
     <t>area: mean where land</t>
   </si>
   <si>
-    <t>area: mean where fresh_free_water</t>
+    <t>area: mean where lake_and_inland_sea</t>
   </si>
   <si>
     <t>area: mean where urban</t>

--- a/data-request/dreq_default.xlsx
+++ b/data-request/dreq_default.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="494">
   <si>
     <t>frequency</t>
   </si>
@@ -1495,9 +1495,6 @@
   </si>
   <si>
     <t>area: mean where land</t>
-  </si>
-  <si>
-    <t>area: mean where lake_and_inland_sea</t>
   </si>
   <si>
     <t>area: mean where urban</t>
@@ -6721,7 +6718,7 @@
         <v>55</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>493</v>
+        <v>65</v>
       </c>
       <c r="F44" t="s">
         <v>73</v>
@@ -6741,7 +6738,7 @@
         <v>55</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F45" t="s">
         <v>73</v>

--- a/data-request/dreq_default.xlsx
+++ b/data-request/dreq_default.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="496">
   <si>
     <t>frequency</t>
   </si>
@@ -982,6 +982,9 @@
   </si>
   <si>
     <t>area: mean where land time: point</t>
+  </si>
+  <si>
+    <t>area: mean where land mean time: point</t>
   </si>
   <si>
     <t>area: mean time: mean within hours time: maximum over hours</t>
@@ -2546,7 +2549,7 @@
         <v>64</v>
       </c>
       <c r="F8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2578,7 +2581,7 @@
         <v>64</v>
       </c>
       <c r="F10" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2610,7 +2613,7 @@
         <v>64</v>
       </c>
       <c r="F12" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2642,7 +2645,7 @@
         <v>64</v>
       </c>
       <c r="F14" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2674,7 +2677,7 @@
         <v>64</v>
       </c>
       <c r="F16" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2706,7 +2709,7 @@
         <v>64</v>
       </c>
       <c r="F18" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2770,7 +2773,7 @@
         <v>64</v>
       </c>
       <c r="F22" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2802,7 +2805,7 @@
         <v>64</v>
       </c>
       <c r="F24" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2834,7 +2837,7 @@
         <v>64</v>
       </c>
       <c r="F26" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2866,7 +2869,7 @@
         <v>64</v>
       </c>
       <c r="F28" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2910,7 +2913,7 @@
         <v>321</v>
       </c>
       <c r="F31" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2927,7 +2930,7 @@
         <v>318</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>64</v>
+        <v>322</v>
       </c>
       <c r="F32" t="s">
         <v>71</v>
@@ -2939,7 +2942,7 @@
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>63</v>
+        <v>320</v>
       </c>
       <c r="F33" t="s">
         <v>72</v>
@@ -2962,7 +2965,7 @@
         <v>320</v>
       </c>
       <c r="F34" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2982,7 +2985,7 @@
         <v>320</v>
       </c>
       <c r="F35" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -3014,7 +3017,7 @@
         <v>321</v>
       </c>
       <c r="F37" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -3046,7 +3049,7 @@
         <v>321</v>
       </c>
       <c r="F39" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -3078,7 +3081,7 @@
         <v>321</v>
       </c>
       <c r="F41" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -3147,7 +3150,7 @@
         <v>56</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F45" t="s">
         <v>74</v>
@@ -3394,7 +3397,7 @@
         <v>64</v>
       </c>
       <c r="F58" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -3438,7 +3441,7 @@
         <v>321</v>
       </c>
       <c r="F61" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -3458,7 +3461,7 @@
         <v>320</v>
       </c>
       <c r="F62" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -3490,7 +3493,7 @@
         <v>321</v>
       </c>
       <c r="F64" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -3507,7 +3510,7 @@
         <v>319</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F65" t="s">
         <v>74</v>
@@ -3519,7 +3522,7 @@
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F66" t="s">
         <v>75</v>
@@ -3542,7 +3545,7 @@
         <v>64</v>
       </c>
       <c r="F67" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -3574,7 +3577,7 @@
         <v>64</v>
       </c>
       <c r="F69" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3606,7 +3609,7 @@
         <v>64</v>
       </c>
       <c r="F71" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3638,7 +3641,7 @@
         <v>64</v>
       </c>
       <c r="F73" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3670,7 +3673,7 @@
         <v>64</v>
       </c>
       <c r="F75" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3702,7 +3705,7 @@
         <v>64</v>
       </c>
       <c r="F77" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3766,7 +3769,7 @@
         <v>64</v>
       </c>
       <c r="F81" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3798,7 +3801,7 @@
         <v>64</v>
       </c>
       <c r="F83" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3830,7 +3833,7 @@
         <v>64</v>
       </c>
       <c r="F85" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3862,7 +3865,7 @@
         <v>64</v>
       </c>
       <c r="F87" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3978,7 +3981,7 @@
         <v>321</v>
       </c>
       <c r="F94" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3998,7 +4001,7 @@
         <v>64</v>
       </c>
       <c r="F95" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -4094,7 +4097,7 @@
         <v>64</v>
       </c>
       <c r="F101" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -4126,7 +4129,7 @@
         <v>64</v>
       </c>
       <c r="F103" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -4158,7 +4161,7 @@
         <v>64</v>
       </c>
       <c r="F105" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -4190,7 +4193,7 @@
         <v>64</v>
       </c>
       <c r="F107" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -4222,7 +4225,7 @@
         <v>64</v>
       </c>
       <c r="F109" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -4286,7 +4289,7 @@
         <v>64</v>
       </c>
       <c r="F113" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -4318,7 +4321,7 @@
         <v>64</v>
       </c>
       <c r="F115" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -4350,7 +4353,7 @@
         <v>64</v>
       </c>
       <c r="F117" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -4382,7 +4385,7 @@
         <v>64</v>
       </c>
       <c r="F119" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -4414,7 +4417,7 @@
         <v>64</v>
       </c>
       <c r="F121" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -4510,7 +4513,7 @@
         <v>64</v>
       </c>
       <c r="F127" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -4574,7 +4577,7 @@
         <v>64</v>
       </c>
       <c r="F131" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -4638,7 +4641,7 @@
         <v>64</v>
       </c>
       <c r="F135" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -4702,7 +4705,7 @@
         <v>64</v>
       </c>
       <c r="F139" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -4734,7 +4737,7 @@
         <v>64</v>
       </c>
       <c r="F141" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4798,7 +4801,7 @@
         <v>64</v>
       </c>
       <c r="F145" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4830,7 +4833,7 @@
         <v>64</v>
       </c>
       <c r="F147" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4862,7 +4865,7 @@
         <v>64</v>
       </c>
       <c r="F149" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4894,7 +4897,7 @@
         <v>64</v>
       </c>
       <c r="F151" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4926,7 +4929,7 @@
         <v>64</v>
       </c>
       <c r="F153" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4958,7 +4961,7 @@
         <v>64</v>
       </c>
       <c r="F155" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4990,7 +4993,7 @@
         <v>64</v>
       </c>
       <c r="F157" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -5022,7 +5025,7 @@
         <v>64</v>
       </c>
       <c r="F159" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -5054,7 +5057,7 @@
         <v>64</v>
       </c>
       <c r="F161" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -5086,7 +5089,7 @@
         <v>64</v>
       </c>
       <c r="F163" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -5118,7 +5121,7 @@
         <v>64</v>
       </c>
       <c r="F165" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -5150,7 +5153,7 @@
         <v>64</v>
       </c>
       <c r="F167" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -5182,7 +5185,7 @@
         <v>64</v>
       </c>
       <c r="F169" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -5214,7 +5217,7 @@
         <v>64</v>
       </c>
       <c r="F171" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -5246,7 +5249,7 @@
         <v>64</v>
       </c>
       <c r="F173" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -5278,7 +5281,7 @@
         <v>64</v>
       </c>
       <c r="F175" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -5310,7 +5313,7 @@
         <v>64</v>
       </c>
       <c r="F177" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -5342,7 +5345,7 @@
         <v>64</v>
       </c>
       <c r="F179" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -5374,7 +5377,7 @@
         <v>64</v>
       </c>
       <c r="F181" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -5406,7 +5409,7 @@
         <v>64</v>
       </c>
       <c r="F183" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -5438,7 +5441,7 @@
         <v>64</v>
       </c>
       <c r="F185" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -5470,7 +5473,7 @@
         <v>64</v>
       </c>
       <c r="F187" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -5502,7 +5505,7 @@
         <v>64</v>
       </c>
       <c r="F189" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -5534,7 +5537,7 @@
         <v>64</v>
       </c>
       <c r="F191" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5973,19 +5976,19 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F2" t="s">
         <v>73</v>
@@ -5993,16 +5996,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>64</v>
@@ -6025,16 +6028,16 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>66</v>
@@ -6057,16 +6060,16 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>64</v>
@@ -6089,16 +6092,16 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>66</v>
@@ -6121,13 +6124,13 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>55</v>
@@ -6136,18 +6139,18 @@
         <v>63</v>
       </c>
       <c r="F11" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>55</v>
@@ -6156,18 +6159,18 @@
         <v>63</v>
       </c>
       <c r="F12" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>55</v>
@@ -6176,18 +6179,18 @@
         <v>63</v>
       </c>
       <c r="F13" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>58</v>
@@ -6201,13 +6204,13 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>56</v>
@@ -6221,13 +6224,13 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>57</v>
@@ -6236,7 +6239,7 @@
         <v>64</v>
       </c>
       <c r="F16" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6253,13 +6256,13 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>57</v>
@@ -6268,7 +6271,7 @@
         <v>64</v>
       </c>
       <c r="F18" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6285,13 +6288,13 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>57</v>
@@ -6300,7 +6303,7 @@
         <v>64</v>
       </c>
       <c r="F20" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6317,13 +6320,13 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>57</v>
@@ -6332,7 +6335,7 @@
         <v>64</v>
       </c>
       <c r="F22" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6349,13 +6352,13 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>57</v>
@@ -6364,7 +6367,7 @@
         <v>64</v>
       </c>
       <c r="F24" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6381,13 +6384,13 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>57</v>
@@ -6396,7 +6399,7 @@
         <v>64</v>
       </c>
       <c r="F26" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6413,13 +6416,13 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>57</v>
@@ -6428,7 +6431,7 @@
         <v>64</v>
       </c>
       <c r="F28" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -6445,13 +6448,13 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>62</v>
@@ -6477,13 +6480,13 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>62</v>
@@ -6509,19 +6512,19 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>318</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F34" t="s">
         <v>73</v>
@@ -6529,13 +6532,13 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>57</v>
@@ -6549,13 +6552,13 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>60</v>
@@ -6564,18 +6567,18 @@
         <v>63</v>
       </c>
       <c r="F36" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>60</v>
@@ -6584,18 +6587,18 @@
         <v>63</v>
       </c>
       <c r="F37" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>60</v>
@@ -6604,18 +6607,18 @@
         <v>63</v>
       </c>
       <c r="F38" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>58</v>
@@ -6629,13 +6632,13 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>60</v>
@@ -6644,18 +6647,18 @@
         <v>63</v>
       </c>
       <c r="F40" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>60</v>
@@ -6664,18 +6667,18 @@
         <v>63</v>
       </c>
       <c r="F41" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>60</v>
@@ -6684,18 +6687,18 @@
         <v>63</v>
       </c>
       <c r="F42" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>55</v>
@@ -6709,19 +6712,19 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F44" t="s">
         <v>73</v>
@@ -6729,19 +6732,19 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F45" t="s">
         <v>73</v>
@@ -6749,13 +6752,13 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>62</v>
@@ -6764,7 +6767,7 @@
         <v>64</v>
       </c>
       <c r="F46" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -6781,13 +6784,13 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>62</v>
@@ -6796,7 +6799,7 @@
         <v>64</v>
       </c>
       <c r="F48" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -6813,13 +6816,13 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>62</v>
@@ -6828,7 +6831,7 @@
         <v>64</v>
       </c>
       <c r="F50" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -6845,13 +6848,13 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>62</v>
@@ -6860,7 +6863,7 @@
         <v>64</v>
       </c>
       <c r="F52" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -6877,13 +6880,13 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>62</v>
@@ -6892,7 +6895,7 @@
         <v>64</v>
       </c>
       <c r="F54" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -6909,13 +6912,13 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>62</v>
@@ -6924,7 +6927,7 @@
         <v>64</v>
       </c>
       <c r="F56" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -6941,13 +6944,13 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>62</v>
@@ -6956,7 +6959,7 @@
         <v>64</v>
       </c>
       <c r="F58" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -6973,13 +6976,13 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>61</v>
@@ -6988,7 +6991,7 @@
         <v>64</v>
       </c>
       <c r="F60" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -7005,13 +7008,13 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>61</v>
@@ -7020,7 +7023,7 @@
         <v>64</v>
       </c>
       <c r="F62" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -7037,13 +7040,13 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>61</v>
@@ -7052,7 +7055,7 @@
         <v>64</v>
       </c>
       <c r="F64" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -7069,13 +7072,13 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>61</v>
@@ -7084,7 +7087,7 @@
         <v>64</v>
       </c>
       <c r="F66" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -7101,13 +7104,13 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>61</v>
@@ -7133,13 +7136,13 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>61</v>
@@ -7165,13 +7168,13 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>61</v>
@@ -7180,7 +7183,7 @@
         <v>64</v>
       </c>
       <c r="F72" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -7197,13 +7200,13 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>61</v>
@@ -7229,13 +7232,13 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>61</v>
@@ -7244,7 +7247,7 @@
         <v>64</v>
       </c>
       <c r="F76" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -7261,13 +7264,13 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>61</v>
@@ -7276,7 +7279,7 @@
         <v>64</v>
       </c>
       <c r="F78" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -7293,13 +7296,13 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>61</v>
@@ -7308,7 +7311,7 @@
         <v>64</v>
       </c>
       <c r="F80" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -7325,13 +7328,13 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>61</v>
@@ -7340,7 +7343,7 @@
         <v>64</v>
       </c>
       <c r="F82" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -7357,13 +7360,13 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>61</v>
@@ -7372,7 +7375,7 @@
         <v>64</v>
       </c>
       <c r="F84" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -7389,13 +7392,13 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>61</v>
@@ -7404,7 +7407,7 @@
         <v>64</v>
       </c>
       <c r="F86" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -7421,13 +7424,13 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>61</v>
@@ -7436,7 +7439,7 @@
         <v>64</v>
       </c>
       <c r="F88" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -7453,13 +7456,13 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>61</v>
@@ -7468,7 +7471,7 @@
         <v>64</v>
       </c>
       <c r="F90" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -7485,13 +7488,13 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>61</v>
@@ -7500,7 +7503,7 @@
         <v>64</v>
       </c>
       <c r="F92" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -7517,13 +7520,13 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>210</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>61</v>
@@ -7532,7 +7535,7 @@
         <v>64</v>
       </c>
       <c r="F94" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -7549,13 +7552,13 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>210</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>61</v>
@@ -7564,7 +7567,7 @@
         <v>64</v>
       </c>
       <c r="F96" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -7581,13 +7584,13 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>210</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>61</v>
@@ -7596,7 +7599,7 @@
         <v>64</v>
       </c>
       <c r="F98" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -7613,13 +7616,13 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>210</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>61</v>
@@ -7628,7 +7631,7 @@
         <v>64</v>
       </c>
       <c r="F100" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -7645,13 +7648,13 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>210</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>61</v>
@@ -7660,7 +7663,7 @@
         <v>64</v>
       </c>
       <c r="F102" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -7677,13 +7680,13 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>210</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>61</v>
@@ -7692,7 +7695,7 @@
         <v>64</v>
       </c>
       <c r="F104" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -7709,13 +7712,13 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>210</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>61</v>
@@ -7724,7 +7727,7 @@
         <v>64</v>
       </c>
       <c r="F106" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -7741,13 +7744,13 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>61</v>
@@ -7773,13 +7776,13 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>58</v>
@@ -7793,13 +7796,13 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>211</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>58</v>
@@ -7808,7 +7811,7 @@
         <v>64</v>
       </c>
       <c r="F111" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -7825,13 +7828,13 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>211</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>58</v>
@@ -7840,7 +7843,7 @@
         <v>64</v>
       </c>
       <c r="F113" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -7857,13 +7860,13 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>211</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>58</v>
@@ -7872,7 +7875,7 @@
         <v>64</v>
       </c>
       <c r="F115" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -7889,13 +7892,13 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>211</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>58</v>
@@ -7904,7 +7907,7 @@
         <v>64</v>
       </c>
       <c r="F117" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -7921,13 +7924,13 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>211</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>58</v>
@@ -7936,7 +7939,7 @@
         <v>64</v>
       </c>
       <c r="F119" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -7953,13 +7956,13 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>211</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>58</v>
@@ -7968,7 +7971,7 @@
         <v>64</v>
       </c>
       <c r="F121" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -7985,13 +7988,13 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>211</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>58</v>
@@ -8000,7 +8003,7 @@
         <v>64</v>
       </c>
       <c r="F123" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="124" spans="1:6">

--- a/data-request/dreq_default.xlsx
+++ b/data-request/dreq_default.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="495">
   <si>
     <t>frequency</t>
   </si>
@@ -982,9 +982,6 @@
   </si>
   <si>
     <t>area: mean where land time: point</t>
-  </si>
-  <si>
-    <t>area: mean where land mean time: point</t>
   </si>
   <si>
     <t>area: mean time: mean within hours time: maximum over hours</t>
@@ -2549,7 +2546,7 @@
         <v>64</v>
       </c>
       <c r="F8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2581,7 +2578,7 @@
         <v>64</v>
       </c>
       <c r="F10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2613,7 +2610,7 @@
         <v>64</v>
       </c>
       <c r="F12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2645,7 +2642,7 @@
         <v>64</v>
       </c>
       <c r="F14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2677,7 +2674,7 @@
         <v>64</v>
       </c>
       <c r="F16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2709,7 +2706,7 @@
         <v>64</v>
       </c>
       <c r="F18" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2773,7 +2770,7 @@
         <v>64</v>
       </c>
       <c r="F22" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2805,7 +2802,7 @@
         <v>64</v>
       </c>
       <c r="F24" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2837,7 +2834,7 @@
         <v>64</v>
       </c>
       <c r="F26" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2869,7 +2866,7 @@
         <v>64</v>
       </c>
       <c r="F28" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2913,7 +2910,7 @@
         <v>321</v>
       </c>
       <c r="F31" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2930,10 +2927,10 @@
         <v>318</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F32" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2942,10 +2939,10 @@
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2965,7 +2962,7 @@
         <v>320</v>
       </c>
       <c r="F34" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2985,7 +2982,7 @@
         <v>320</v>
       </c>
       <c r="F35" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -3017,7 +3014,7 @@
         <v>321</v>
       </c>
       <c r="F37" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -3049,7 +3046,7 @@
         <v>321</v>
       </c>
       <c r="F39" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -3081,7 +3078,7 @@
         <v>321</v>
       </c>
       <c r="F41" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -3150,7 +3147,7 @@
         <v>56</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F45" t="s">
         <v>74</v>
@@ -3397,7 +3394,7 @@
         <v>64</v>
       </c>
       <c r="F58" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -3441,7 +3438,7 @@
         <v>321</v>
       </c>
       <c r="F61" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -3461,7 +3458,7 @@
         <v>320</v>
       </c>
       <c r="F62" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -3493,7 +3490,7 @@
         <v>321</v>
       </c>
       <c r="F64" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -3510,7 +3507,7 @@
         <v>319</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F65" t="s">
         <v>74</v>
@@ -3522,7 +3519,7 @@
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F66" t="s">
         <v>75</v>
@@ -3545,7 +3542,7 @@
         <v>64</v>
       </c>
       <c r="F67" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -3577,7 +3574,7 @@
         <v>64</v>
       </c>
       <c r="F69" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3609,7 +3606,7 @@
         <v>64</v>
       </c>
       <c r="F71" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3641,7 +3638,7 @@
         <v>64</v>
       </c>
       <c r="F73" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3673,7 +3670,7 @@
         <v>64</v>
       </c>
       <c r="F75" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3705,7 +3702,7 @@
         <v>64</v>
       </c>
       <c r="F77" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3769,7 +3766,7 @@
         <v>64</v>
       </c>
       <c r="F81" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3801,7 +3798,7 @@
         <v>64</v>
       </c>
       <c r="F83" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3833,7 +3830,7 @@
         <v>64</v>
       </c>
       <c r="F85" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3865,7 +3862,7 @@
         <v>64</v>
       </c>
       <c r="F87" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3981,7 +3978,7 @@
         <v>321</v>
       </c>
       <c r="F94" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -4001,7 +3998,7 @@
         <v>64</v>
       </c>
       <c r="F95" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -4097,7 +4094,7 @@
         <v>64</v>
       </c>
       <c r="F101" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -4129,7 +4126,7 @@
         <v>64</v>
       </c>
       <c r="F103" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -4161,7 +4158,7 @@
         <v>64</v>
       </c>
       <c r="F105" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -4193,7 +4190,7 @@
         <v>64</v>
       </c>
       <c r="F107" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -4225,7 +4222,7 @@
         <v>64</v>
       </c>
       <c r="F109" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -4289,7 +4286,7 @@
         <v>64</v>
       </c>
       <c r="F113" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -4321,7 +4318,7 @@
         <v>64</v>
       </c>
       <c r="F115" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -4353,7 +4350,7 @@
         <v>64</v>
       </c>
       <c r="F117" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -4385,7 +4382,7 @@
         <v>64</v>
       </c>
       <c r="F119" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -4417,7 +4414,7 @@
         <v>64</v>
       </c>
       <c r="F121" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -4513,7 +4510,7 @@
         <v>64</v>
       </c>
       <c r="F127" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -4577,7 +4574,7 @@
         <v>64</v>
       </c>
       <c r="F131" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -4641,7 +4638,7 @@
         <v>64</v>
       </c>
       <c r="F135" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -4705,7 +4702,7 @@
         <v>64</v>
       </c>
       <c r="F139" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -4737,7 +4734,7 @@
         <v>64</v>
       </c>
       <c r="F141" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4801,7 +4798,7 @@
         <v>64</v>
       </c>
       <c r="F145" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4833,7 +4830,7 @@
         <v>64</v>
       </c>
       <c r="F147" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4865,7 +4862,7 @@
         <v>64</v>
       </c>
       <c r="F149" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4897,7 +4894,7 @@
         <v>64</v>
       </c>
       <c r="F151" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4929,7 +4926,7 @@
         <v>64</v>
       </c>
       <c r="F153" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4961,7 +4958,7 @@
         <v>64</v>
       </c>
       <c r="F155" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4993,7 +4990,7 @@
         <v>64</v>
       </c>
       <c r="F157" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -5025,7 +5022,7 @@
         <v>64</v>
       </c>
       <c r="F159" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -5057,7 +5054,7 @@
         <v>64</v>
       </c>
       <c r="F161" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -5089,7 +5086,7 @@
         <v>64</v>
       </c>
       <c r="F163" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -5121,7 +5118,7 @@
         <v>64</v>
       </c>
       <c r="F165" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -5153,7 +5150,7 @@
         <v>64</v>
       </c>
       <c r="F167" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -5185,7 +5182,7 @@
         <v>64</v>
       </c>
       <c r="F169" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -5217,7 +5214,7 @@
         <v>64</v>
       </c>
       <c r="F171" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -5249,7 +5246,7 @@
         <v>64</v>
       </c>
       <c r="F173" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -5281,7 +5278,7 @@
         <v>64</v>
       </c>
       <c r="F175" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -5313,7 +5310,7 @@
         <v>64</v>
       </c>
       <c r="F177" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -5345,7 +5342,7 @@
         <v>64</v>
       </c>
       <c r="F179" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -5377,7 +5374,7 @@
         <v>64</v>
       </c>
       <c r="F181" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -5409,7 +5406,7 @@
         <v>64</v>
       </c>
       <c r="F183" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -5441,7 +5438,7 @@
         <v>64</v>
       </c>
       <c r="F185" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -5473,7 +5470,7 @@
         <v>64</v>
       </c>
       <c r="F187" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -5505,7 +5502,7 @@
         <v>64</v>
       </c>
       <c r="F189" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -5537,7 +5534,7 @@
         <v>64</v>
       </c>
       <c r="F191" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5976,19 +5973,19 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F2" t="s">
         <v>73</v>
@@ -5996,16 +5993,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>64</v>
@@ -6028,16 +6025,16 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>66</v>
@@ -6060,16 +6057,16 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>64</v>
@@ -6092,16 +6089,16 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>66</v>
@@ -6124,13 +6121,13 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>55</v>
@@ -6139,18 +6136,18 @@
         <v>63</v>
       </c>
       <c r="F11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>55</v>
@@ -6159,18 +6156,18 @@
         <v>63</v>
       </c>
       <c r="F12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>55</v>
@@ -6179,18 +6176,18 @@
         <v>63</v>
       </c>
       <c r="F13" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>58</v>
@@ -6204,13 +6201,13 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>56</v>
@@ -6224,13 +6221,13 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>57</v>
@@ -6239,7 +6236,7 @@
         <v>64</v>
       </c>
       <c r="F16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6256,13 +6253,13 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>57</v>
@@ -6271,7 +6268,7 @@
         <v>64</v>
       </c>
       <c r="F18" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6288,13 +6285,13 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>57</v>
@@ -6303,7 +6300,7 @@
         <v>64</v>
       </c>
       <c r="F20" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6320,13 +6317,13 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>57</v>
@@ -6335,7 +6332,7 @@
         <v>64</v>
       </c>
       <c r="F22" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6352,13 +6349,13 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>57</v>
@@ -6367,7 +6364,7 @@
         <v>64</v>
       </c>
       <c r="F24" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6384,13 +6381,13 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>57</v>
@@ -6399,7 +6396,7 @@
         <v>64</v>
       </c>
       <c r="F26" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6416,13 +6413,13 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>57</v>
@@ -6431,7 +6428,7 @@
         <v>64</v>
       </c>
       <c r="F28" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -6448,13 +6445,13 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>62</v>
@@ -6480,13 +6477,13 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>62</v>
@@ -6512,19 +6509,19 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>318</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F34" t="s">
         <v>73</v>
@@ -6532,13 +6529,13 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>57</v>
@@ -6552,13 +6549,13 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>60</v>
@@ -6567,18 +6564,18 @@
         <v>63</v>
       </c>
       <c r="F36" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>60</v>
@@ -6587,18 +6584,18 @@
         <v>63</v>
       </c>
       <c r="F37" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>60</v>
@@ -6607,18 +6604,18 @@
         <v>63</v>
       </c>
       <c r="F38" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>58</v>
@@ -6632,13 +6629,13 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>60</v>
@@ -6647,18 +6644,18 @@
         <v>63</v>
       </c>
       <c r="F40" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>60</v>
@@ -6667,18 +6664,18 @@
         <v>63</v>
       </c>
       <c r="F41" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>60</v>
@@ -6687,18 +6684,18 @@
         <v>63</v>
       </c>
       <c r="F42" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>55</v>
@@ -6712,19 +6709,19 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F44" t="s">
         <v>73</v>
@@ -6732,19 +6729,19 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>55</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F45" t="s">
         <v>73</v>
@@ -6752,13 +6749,13 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>62</v>
@@ -6767,7 +6764,7 @@
         <v>64</v>
       </c>
       <c r="F46" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -6784,13 +6781,13 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>62</v>
@@ -6799,7 +6796,7 @@
         <v>64</v>
       </c>
       <c r="F48" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -6816,13 +6813,13 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>62</v>
@@ -6831,7 +6828,7 @@
         <v>64</v>
       </c>
       <c r="F50" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -6848,13 +6845,13 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>62</v>
@@ -6863,7 +6860,7 @@
         <v>64</v>
       </c>
       <c r="F52" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -6880,13 +6877,13 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>62</v>
@@ -6895,7 +6892,7 @@
         <v>64</v>
       </c>
       <c r="F54" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -6912,13 +6909,13 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>62</v>
@@ -6927,7 +6924,7 @@
         <v>64</v>
       </c>
       <c r="F56" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -6944,13 +6941,13 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>62</v>
@@ -6959,7 +6956,7 @@
         <v>64</v>
       </c>
       <c r="F58" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -6976,13 +6973,13 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>61</v>
@@ -6991,7 +6988,7 @@
         <v>64</v>
       </c>
       <c r="F60" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -7008,13 +7005,13 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>61</v>
@@ -7023,7 +7020,7 @@
         <v>64</v>
       </c>
       <c r="F62" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -7040,13 +7037,13 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>61</v>
@@ -7055,7 +7052,7 @@
         <v>64</v>
       </c>
       <c r="F64" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -7072,13 +7069,13 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>61</v>
@@ -7087,7 +7084,7 @@
         <v>64</v>
       </c>
       <c r="F66" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -7104,13 +7101,13 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>61</v>
@@ -7136,13 +7133,13 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>61</v>
@@ -7168,13 +7165,13 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>61</v>
@@ -7183,7 +7180,7 @@
         <v>64</v>
       </c>
       <c r="F72" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -7200,13 +7197,13 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>61</v>
@@ -7232,13 +7229,13 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>61</v>
@@ -7247,7 +7244,7 @@
         <v>64</v>
       </c>
       <c r="F76" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -7264,13 +7261,13 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>61</v>
@@ -7279,7 +7276,7 @@
         <v>64</v>
       </c>
       <c r="F78" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -7296,13 +7293,13 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>61</v>
@@ -7311,7 +7308,7 @@
         <v>64</v>
       </c>
       <c r="F80" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -7328,13 +7325,13 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>61</v>
@@ -7343,7 +7340,7 @@
         <v>64</v>
       </c>
       <c r="F82" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -7360,13 +7357,13 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>61</v>
@@ -7375,7 +7372,7 @@
         <v>64</v>
       </c>
       <c r="F84" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -7392,13 +7389,13 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>61</v>
@@ -7407,7 +7404,7 @@
         <v>64</v>
       </c>
       <c r="F86" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -7424,13 +7421,13 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>61</v>
@@ -7439,7 +7436,7 @@
         <v>64</v>
       </c>
       <c r="F88" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -7456,13 +7453,13 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>61</v>
@@ -7471,7 +7468,7 @@
         <v>64</v>
       </c>
       <c r="F90" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -7488,13 +7485,13 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>61</v>
@@ -7503,7 +7500,7 @@
         <v>64</v>
       </c>
       <c r="F92" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -7520,13 +7517,13 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>210</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>61</v>
@@ -7535,7 +7532,7 @@
         <v>64</v>
       </c>
       <c r="F94" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -7552,13 +7549,13 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>210</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>61</v>
@@ -7567,7 +7564,7 @@
         <v>64</v>
       </c>
       <c r="F96" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -7584,13 +7581,13 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>210</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>61</v>
@@ -7599,7 +7596,7 @@
         <v>64</v>
       </c>
       <c r="F98" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -7616,13 +7613,13 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>210</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>61</v>
@@ -7631,7 +7628,7 @@
         <v>64</v>
       </c>
       <c r="F100" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -7648,13 +7645,13 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>210</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>61</v>
@@ -7663,7 +7660,7 @@
         <v>64</v>
       </c>
       <c r="F102" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -7680,13 +7677,13 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>210</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>61</v>
@@ -7695,7 +7692,7 @@
         <v>64</v>
       </c>
       <c r="F104" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -7712,13 +7709,13 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>210</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>61</v>
@@ -7727,7 +7724,7 @@
         <v>64</v>
       </c>
       <c r="F106" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -7744,13 +7741,13 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>61</v>
@@ -7776,13 +7773,13 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>58</v>
@@ -7796,13 +7793,13 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>211</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>58</v>
@@ -7811,7 +7808,7 @@
         <v>64</v>
       </c>
       <c r="F111" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -7828,13 +7825,13 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>211</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>58</v>
@@ -7843,7 +7840,7 @@
         <v>64</v>
       </c>
       <c r="F113" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -7860,13 +7857,13 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>211</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>58</v>
@@ -7875,7 +7872,7 @@
         <v>64</v>
       </c>
       <c r="F115" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -7892,13 +7889,13 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>211</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>58</v>
@@ -7907,7 +7904,7 @@
         <v>64</v>
       </c>
       <c r="F117" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -7924,13 +7921,13 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>211</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>58</v>
@@ -7939,7 +7936,7 @@
         <v>64</v>
       </c>
       <c r="F119" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -7956,13 +7953,13 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>211</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>58</v>
@@ -7971,7 +7968,7 @@
         <v>64</v>
       </c>
       <c r="F121" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -7988,13 +7985,13 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>211</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>58</v>
@@ -8003,7 +8000,7 @@
         <v>64</v>
       </c>
       <c r="F123" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="124" spans="1:6">
